--- a/sources/NIST-agencies-bureaus.xlsx
+++ b/sources/NIST-agencies-bureaus.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2107" uniqueCount="1774">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2108" uniqueCount="1775">
   <si>
     <t xml:space="preserve">Inter-American Institute for Cooperation on Agriculture </t>
   </si>
@@ -5342,7 +5342,10 @@
     <t>BLS</t>
   </si>
   <si>
-    <t>Commissioner of the Social Security Administration</t>
+    <t>National Cemetery Administration</t>
+  </si>
+  <si>
+    <t>Commissioner of Social Security</t>
   </si>
 </sst>
 </file>
@@ -5780,8 +5783,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F1185"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A217" workbookViewId="0">
-      <selection activeCell="C189" sqref="C189"/>
+    <sheetView tabSelected="1" topLeftCell="A522" workbookViewId="0">
+      <selection activeCell="F549" sqref="F549"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -12129,7 +12132,7 @@
         <v>1681</v>
       </c>
       <c r="F547" s="5" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="548" spans="1:6" ht="12" x14ac:dyDescent="0.2">
@@ -12663,7 +12666,7 @@
       </c>
       <c r="D592" s="5"/>
     </row>
-    <row r="593" spans="1:4" ht="12" x14ac:dyDescent="0.2">
+    <row r="593" spans="1:5" ht="12" x14ac:dyDescent="0.2">
       <c r="A593" s="2">
         <v>3628</v>
       </c>
@@ -12675,7 +12678,7 @@
       </c>
       <c r="D593" s="5"/>
     </row>
-    <row r="594" spans="1:4" ht="12" x14ac:dyDescent="0.2">
+    <row r="594" spans="1:5" ht="12" x14ac:dyDescent="0.2">
       <c r="A594" s="2">
         <v>3630</v>
       </c>
@@ -12686,8 +12689,11 @@
         <v>43</v>
       </c>
       <c r="D594" s="5"/>
-    </row>
-    <row r="595" spans="1:4" ht="12" x14ac:dyDescent="0.2">
+      <c r="E594" s="5" t="s">
+        <v>1773</v>
+      </c>
+    </row>
+    <row r="595" spans="1:5" ht="12" x14ac:dyDescent="0.2">
       <c r="A595" s="2">
         <v>3632</v>
       </c>
@@ -12699,7 +12705,7 @@
       </c>
       <c r="D595" s="5"/>
     </row>
-    <row r="596" spans="1:4" ht="12" x14ac:dyDescent="0.2">
+    <row r="596" spans="1:5" ht="12" x14ac:dyDescent="0.2">
       <c r="A596" s="2">
         <v>3633</v>
       </c>
@@ -12711,7 +12717,7 @@
       </c>
       <c r="D596" s="5"/>
     </row>
-    <row r="597" spans="1:4" ht="24" x14ac:dyDescent="0.2">
+    <row r="597" spans="1:5" ht="24" x14ac:dyDescent="0.2">
       <c r="A597" s="2">
         <v>3634</v>
       </c>
@@ -12723,7 +12729,7 @@
       </c>
       <c r="D597" s="5"/>
     </row>
-    <row r="598" spans="1:4" ht="12" x14ac:dyDescent="0.2">
+    <row r="598" spans="1:5" ht="12" x14ac:dyDescent="0.2">
       <c r="A598" s="2">
         <v>3636</v>
       </c>
@@ -12735,7 +12741,7 @@
       </c>
       <c r="D598" s="5"/>
     </row>
-    <row r="599" spans="1:4" ht="12" x14ac:dyDescent="0.2">
+    <row r="599" spans="1:5" ht="12" x14ac:dyDescent="0.2">
       <c r="A599" s="2">
         <v>3637</v>
       </c>
@@ -12747,7 +12753,7 @@
       </c>
       <c r="D599" s="5"/>
     </row>
-    <row r="600" spans="1:4" ht="12" x14ac:dyDescent="0.2">
+    <row r="600" spans="1:5" ht="12" x14ac:dyDescent="0.2">
       <c r="A600" s="2">
         <v>3638</v>
       </c>
@@ -12759,7 +12765,7 @@
       </c>
       <c r="D600" s="5"/>
     </row>
-    <row r="601" spans="1:4" ht="12" x14ac:dyDescent="0.2">
+    <row r="601" spans="1:5" ht="12" x14ac:dyDescent="0.2">
       <c r="A601" s="2">
         <v>3640</v>
       </c>
@@ -12771,7 +12777,7 @@
       </c>
       <c r="D601" s="5"/>
     </row>
-    <row r="602" spans="1:4" ht="12" x14ac:dyDescent="0.2">
+    <row r="602" spans="1:5" ht="12" x14ac:dyDescent="0.2">
       <c r="A602" s="2">
         <v>3641</v>
       </c>
@@ -12783,7 +12789,7 @@
       </c>
       <c r="D602" s="5"/>
     </row>
-    <row r="603" spans="1:4" ht="12" x14ac:dyDescent="0.2">
+    <row r="603" spans="1:5" ht="12" x14ac:dyDescent="0.2">
       <c r="A603" s="2">
         <v>3643</v>
       </c>
@@ -12795,7 +12801,7 @@
       </c>
       <c r="D603" s="5"/>
     </row>
-    <row r="604" spans="1:4" ht="12" x14ac:dyDescent="0.2">
+    <row r="604" spans="1:5" ht="12" x14ac:dyDescent="0.2">
       <c r="A604" s="2">
         <v>3644</v>
       </c>
@@ -12807,7 +12813,7 @@
       </c>
       <c r="D604" s="5"/>
     </row>
-    <row r="605" spans="1:4" ht="12" x14ac:dyDescent="0.2">
+    <row r="605" spans="1:5" ht="12" x14ac:dyDescent="0.2">
       <c r="A605" s="2">
         <v>3645</v>
       </c>
@@ -12819,7 +12825,7 @@
       </c>
       <c r="D605" s="5"/>
     </row>
-    <row r="606" spans="1:4" ht="24" x14ac:dyDescent="0.2">
+    <row r="606" spans="1:5" ht="24" x14ac:dyDescent="0.2">
       <c r="A606" s="2">
         <v>3646</v>
       </c>
@@ -12831,7 +12837,7 @@
       </c>
       <c r="D606" s="5"/>
     </row>
-    <row r="607" spans="1:4" ht="12" x14ac:dyDescent="0.2">
+    <row r="607" spans="1:5" ht="12" x14ac:dyDescent="0.2">
       <c r="A607" s="2">
         <v>3647</v>
       </c>
@@ -12843,7 +12849,7 @@
       </c>
       <c r="D607" s="5"/>
     </row>
-    <row r="608" spans="1:4" ht="12" x14ac:dyDescent="0.2">
+    <row r="608" spans="1:5" ht="12" x14ac:dyDescent="0.2">
       <c r="A608" s="2">
         <v>3648</v>
       </c>
@@ -19582,7 +19588,7 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:C6 A1021:C1047 A802:C837 A801:B801 A13:C24 A12:B12 A760:B760 A759:B759 A773:C800 A772:B772 A1050:C1048576 A1048 C1048 A1049 C1049 A26:C67 B25:C25 A568:C757 A567:B567 A771:B771 A761:B761 A839:C1020 A838:B838 A762:B762 A763:B763 A764:B764 A765:B765 A766:B766 A767:B767 A768:B768 A769:B769 A770:B770 A758:B758 A148:C566 A147:B147 A69:C146 A68 C68 A8:C11 A7:B7" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:C6 A1021:C1047 A802:C837 A801:B801 A13:C24 A12:B12 A760:B760 A759:B759 A773:C800 A772:B772 A1050:C1048576 A1048 C1048 A1049 C1049 A26:C67 B25:C25 A568:C593 A567:B567 A771:B771 A761:B761 A839:C1020 A838:B838 A762:B762 A763:B763 A764:B764 A765:B765 A766:B766 A767:B767 A768:B768 A769:B769 A770:B770 A758:B758 A148:C566 A147:B147 A69:C146 A68 C68 A8:C11 A7:B7 A595:C757 A594:B594" numberStoredAsText="1"/>
   </ignoredErrors>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">

--- a/sources/NIST-agencies-bureaus.xlsx
+++ b/sources/NIST-agencies-bureaus.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2108" uniqueCount="1775">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2156" uniqueCount="1823">
   <si>
     <t xml:space="preserve">Inter-American Institute for Cooperation on Agriculture </t>
   </si>
@@ -5346,6 +5346,150 @@
   </si>
   <si>
     <t>Commissioner of Social Security</t>
+  </si>
+  <si>
+    <t>United States Trade Commission</t>
+  </si>
+  <si>
+    <t>United States Commission on International Religious Freedom</t>
+  </si>
+  <si>
+    <t>Federal Housing Finance Agency</t>
+  </si>
+  <si>
+    <t>FHFA</t>
+  </si>
+  <si>
+    <t>United States Agency for International Development</t>
+  </si>
+  <si>
+    <t>United States Coast Guard</t>
+  </si>
+  <si>
+    <t>United States Secret Service</t>
+  </si>
+  <si>
+    <t>United States Immigration and Customs Enforcement</t>
+  </si>
+  <si>
+    <t>United States Customs and Border Protection</t>
+  </si>
+  <si>
+    <t>CBO</t>
+  </si>
+  <si>
+    <t>Director of the Congressional Budget Office</t>
+  </si>
+  <si>
+    <t>Administrator of the Drug Enforcement Administration</t>
+  </si>
+  <si>
+    <t>Director of the Federal Bureau of Investigation</t>
+  </si>
+  <si>
+    <t>Bureau of Alcohol, Tobacco and Firearms</t>
+  </si>
+  <si>
+    <t>DOC</t>
+  </si>
+  <si>
+    <t>FEC</t>
+  </si>
+  <si>
+    <t>USCIS</t>
+  </si>
+  <si>
+    <t>United States Citizenship and Immigration Services</t>
+  </si>
+  <si>
+    <t>Administrator of the Small Business Administration</t>
+  </si>
+  <si>
+    <t>Administrator of the Federal Emergency Management Agency</t>
+  </si>
+  <si>
+    <t>Commissioner of Food and Drugs</t>
+  </si>
+  <si>
+    <t>Director of the Centers for Disease Control and Prevention</t>
+  </si>
+  <si>
+    <t>Administrator of the United States Agency for International Development</t>
+  </si>
+  <si>
+    <t>Director of the United States Fish and Wildlife Service</t>
+  </si>
+  <si>
+    <t>Director of the Bureau of Land Management</t>
+  </si>
+  <si>
+    <t>Director of the National Institute of Standards and Technology</t>
+  </si>
+  <si>
+    <t>Director of the Administrative Office of the United States Courts</t>
+  </si>
+  <si>
+    <t>Director of the United States Geological Survey</t>
+  </si>
+  <si>
+    <t>Director of the Federal Bureau of Prisons, Director of the Bureau of Prisons</t>
+  </si>
+  <si>
+    <t>Director of the Federal Housing Finance Agency</t>
+  </si>
+  <si>
+    <t>Director of the National Park Service</t>
+  </si>
+  <si>
+    <t>Director of the Peace Corps</t>
+  </si>
+  <si>
+    <t>IMF</t>
+  </si>
+  <si>
+    <t>Director of the International Monetary Fund</t>
+  </si>
+  <si>
+    <t>Administrator of the Federal Highway Administration</t>
+  </si>
+  <si>
+    <t>Administrator of the Federal Railroad Administration</t>
+  </si>
+  <si>
+    <t>Administrator of the National Oceanic and Atmospheric Administration</t>
+  </si>
+  <si>
+    <t>Administrator of the Federal Aviation Administration</t>
+  </si>
+  <si>
+    <t>Administrator of the Transportation Security Administration</t>
+  </si>
+  <si>
+    <t>USSS</t>
+  </si>
+  <si>
+    <t>Director of the United States Secret Service</t>
+  </si>
+  <si>
+    <t>Director of Immigration and Customs Enforcement</t>
+  </si>
+  <si>
+    <t>Administrator of the Health Resources and Services Administration</t>
+  </si>
+  <si>
+    <t>HRSA</t>
+  </si>
+  <si>
+    <t>Administrator of the Agency for Healthcare Research and Quality</t>
+  </si>
+  <si>
+    <t>Administrator of the Federal Transit Administrator</t>
+  </si>
+  <si>
+    <t>Commissioner of Internal Revenue</t>
+  </si>
+  <si>
+    <t>Commissioner of U.S. Customs and Border Protection</t>
   </si>
 </sst>
 </file>
@@ -5783,8 +5927,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F1185"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A522" workbookViewId="0">
-      <selection activeCell="F549" sqref="F549"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5792,8 +5936,8 @@
     <col min="1" max="2" width="9" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="67.140625" style="4" customWidth="1"/>
     <col min="4" max="4" width="10" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="55.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="51.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="59.42578125" style="5" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="8.85546875" style="5"/>
   </cols>
   <sheetData>
@@ -5989,7 +6133,12 @@
       <c r="C15" s="2" t="s">
         <v>495</v>
       </c>
-      <c r="D15" s="5"/>
+      <c r="D15" s="5" t="s">
+        <v>1784</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>1785</v>
+      </c>
     </row>
     <row r="16" spans="1:6" ht="12" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
@@ -6173,7 +6322,7 @@
       </c>
       <c r="D32" s="5"/>
     </row>
-    <row r="33" spans="1:4" ht="12" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" ht="12" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>1003</v>
       </c>
@@ -6183,7 +6332,7 @@
       </c>
       <c r="D33" s="5"/>
     </row>
-    <row r="34" spans="1:4" ht="12" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" ht="12" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>1004</v>
       </c>
@@ -6193,7 +6342,7 @@
       </c>
       <c r="D34" s="5"/>
     </row>
-    <row r="35" spans="1:4" ht="12" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" ht="12" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <v>1005</v>
       </c>
@@ -6203,7 +6352,7 @@
       </c>
       <c r="D35" s="5"/>
     </row>
-    <row r="36" spans="1:4" ht="12" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" ht="12" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>1012</v>
       </c>
@@ -6213,7 +6362,7 @@
       </c>
       <c r="D36" s="5"/>
     </row>
-    <row r="37" spans="1:4" ht="12" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" ht="12" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <v>1018</v>
       </c>
@@ -6223,7 +6372,7 @@
       </c>
       <c r="D37" s="5"/>
     </row>
-    <row r="38" spans="1:4" ht="12" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" ht="12" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
         <v>1021</v>
       </c>
@@ -6233,7 +6382,7 @@
       </c>
       <c r="D38" s="5"/>
     </row>
-    <row r="39" spans="1:4" ht="12" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" ht="12" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <v>1023</v>
       </c>
@@ -6243,7 +6392,7 @@
       </c>
       <c r="D39" s="5"/>
     </row>
-    <row r="40" spans="1:4" ht="12" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" ht="12" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
         <v>1025</v>
       </c>
@@ -6253,7 +6402,7 @@
       </c>
       <c r="D40" s="5"/>
     </row>
-    <row r="41" spans="1:4" ht="12" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" ht="12" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
         <v>1027</v>
       </c>
@@ -6262,8 +6411,11 @@
         <v>776</v>
       </c>
       <c r="D41" s="5"/>
-    </row>
-    <row r="42" spans="1:4" ht="12" x14ac:dyDescent="0.2">
+      <c r="F41" s="5" t="s">
+        <v>1801</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="12" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
         <v>1028</v>
       </c>
@@ -6273,7 +6425,7 @@
       </c>
       <c r="D42" s="5"/>
     </row>
-    <row r="43" spans="1:4" ht="12" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" ht="12" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
         <v>1030</v>
       </c>
@@ -6283,7 +6435,7 @@
       </c>
       <c r="D43" s="5"/>
     </row>
-    <row r="44" spans="1:4" ht="12" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6" ht="12" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
         <v>1050</v>
       </c>
@@ -6295,7 +6447,7 @@
       </c>
       <c r="D44" s="5"/>
     </row>
-    <row r="45" spans="1:4" ht="12" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6" ht="12" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
         <v>1051</v>
       </c>
@@ -6307,7 +6459,7 @@
       </c>
       <c r="D45" s="5"/>
     </row>
-    <row r="46" spans="1:4" ht="12" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6" ht="12" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
         <v>1059</v>
       </c>
@@ -6319,7 +6471,7 @@
       </c>
       <c r="D46" s="5"/>
     </row>
-    <row r="47" spans="1:4" ht="12" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6" ht="12" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
         <v>1060</v>
       </c>
@@ -6329,7 +6481,7 @@
       </c>
       <c r="D47" s="5"/>
     </row>
-    <row r="48" spans="1:4" ht="12" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6" ht="12" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
         <v>1100</v>
       </c>
@@ -6536,7 +6688,7 @@
       </c>
       <c r="D64" s="5"/>
     </row>
-    <row r="65" spans="1:4" ht="12" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:6" ht="12" x14ac:dyDescent="0.2">
       <c r="A65" s="2">
         <v>1143</v>
       </c>
@@ -6546,7 +6698,7 @@
       </c>
       <c r="D65" s="5"/>
     </row>
-    <row r="66" spans="1:4" ht="12" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:6" ht="12" x14ac:dyDescent="0.2">
       <c r="A66" s="2">
         <v>1145</v>
       </c>
@@ -6555,8 +6707,11 @@
         <v>800</v>
       </c>
       <c r="D66" s="5"/>
-    </row>
-    <row r="67" spans="1:4" ht="12" x14ac:dyDescent="0.2">
+      <c r="F66" s="5" t="s">
+        <v>1806</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="12" x14ac:dyDescent="0.2">
       <c r="A67" s="2">
         <v>1148</v>
       </c>
@@ -6568,7 +6723,7 @@
       </c>
       <c r="D67" s="5"/>
     </row>
-    <row r="68" spans="1:4" ht="12" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:6" ht="12" x14ac:dyDescent="0.2">
       <c r="A68" s="2">
         <v>1153</v>
       </c>
@@ -6578,7 +6733,7 @@
       </c>
       <c r="D68" s="5"/>
     </row>
-    <row r="69" spans="1:4" ht="12" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:6" ht="12" x14ac:dyDescent="0.2">
       <c r="A69" s="2">
         <v>1160</v>
       </c>
@@ -6590,7 +6745,7 @@
       </c>
       <c r="D69" s="5"/>
     </row>
-    <row r="70" spans="1:4" ht="12" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:6" ht="12" x14ac:dyDescent="0.2">
       <c r="A70" s="2">
         <v>1165</v>
       </c>
@@ -6600,7 +6755,7 @@
       </c>
       <c r="D70" s="5"/>
     </row>
-    <row r="71" spans="1:4" ht="24" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:6" ht="24" x14ac:dyDescent="0.2">
       <c r="A71" s="2">
         <v>1170</v>
       </c>
@@ -6612,7 +6767,7 @@
       </c>
       <c r="D71" s="5"/>
     </row>
-    <row r="72" spans="1:4" ht="12" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:6" ht="12" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
         <v>806</v>
       </c>
@@ -6622,7 +6777,7 @@
       </c>
       <c r="D72" s="5"/>
     </row>
-    <row r="73" spans="1:4" ht="12" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:6" ht="12" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
         <v>808</v>
       </c>
@@ -6632,7 +6787,7 @@
       </c>
       <c r="D73" s="5"/>
     </row>
-    <row r="74" spans="1:4" ht="12" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:6" ht="12" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
         <v>810</v>
       </c>
@@ -6642,7 +6797,7 @@
       </c>
       <c r="D74" s="5"/>
     </row>
-    <row r="75" spans="1:4" ht="12" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:6" ht="12" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
         <v>812</v>
       </c>
@@ -6652,7 +6807,7 @@
       </c>
       <c r="D75" s="5"/>
     </row>
-    <row r="76" spans="1:4" ht="12" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:6" ht="12" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
         <v>814</v>
       </c>
@@ -6662,7 +6817,7 @@
       </c>
       <c r="D76" s="5"/>
     </row>
-    <row r="77" spans="1:4" ht="12" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:6" ht="12" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
         <v>816</v>
       </c>
@@ -6672,7 +6827,7 @@
       </c>
       <c r="D77" s="5"/>
     </row>
-    <row r="78" spans="1:4" ht="12" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:6" ht="12" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
         <v>818</v>
       </c>
@@ -6682,7 +6837,7 @@
       </c>
       <c r="D78" s="5"/>
     </row>
-    <row r="79" spans="1:4" ht="12" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:6" ht="12" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
         <v>820</v>
       </c>
@@ -6690,9 +6845,14 @@
       <c r="C79" s="2" t="s">
         <v>821</v>
       </c>
-      <c r="D79" s="5"/>
-    </row>
-    <row r="80" spans="1:4" ht="12" x14ac:dyDescent="0.2">
+      <c r="D79" s="5" t="s">
+        <v>1807</v>
+      </c>
+      <c r="F79" s="5" t="s">
+        <v>1808</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" ht="12" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
         <v>822</v>
       </c>
@@ -7429,7 +7589,9 @@
       <c r="C142" s="2" t="s">
         <v>505</v>
       </c>
-      <c r="D142" s="5"/>
+      <c r="D142" s="5" t="s">
+        <v>1789</v>
+      </c>
       <c r="F142" s="5" t="s">
         <v>1668</v>
       </c>
@@ -7458,7 +7620,7 @@
       </c>
       <c r="D144" s="5"/>
     </row>
-    <row r="145" spans="1:4" ht="12" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:6" ht="12" x14ac:dyDescent="0.2">
       <c r="A145" s="2">
         <v>1304</v>
       </c>
@@ -7470,7 +7632,7 @@
       </c>
       <c r="D145" s="5"/>
     </row>
-    <row r="146" spans="1:4" ht="12" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:6" ht="12" x14ac:dyDescent="0.2">
       <c r="A146" s="2">
         <v>1306</v>
       </c>
@@ -7482,7 +7644,7 @@
       </c>
       <c r="D146" s="5"/>
     </row>
-    <row r="147" spans="1:4" ht="12" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:6" ht="12" x14ac:dyDescent="0.2">
       <c r="A147" s="2">
         <v>1314</v>
       </c>
@@ -7494,7 +7656,7 @@
       </c>
       <c r="D147" s="5"/>
     </row>
-    <row r="148" spans="1:4" ht="12" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:6" ht="12" x14ac:dyDescent="0.2">
       <c r="A148" s="2">
         <v>1315</v>
       </c>
@@ -7506,7 +7668,7 @@
       </c>
       <c r="D148" s="5"/>
     </row>
-    <row r="149" spans="1:4" ht="12" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:6" ht="12" x14ac:dyDescent="0.2">
       <c r="A149" s="2">
         <v>1321</v>
       </c>
@@ -7520,7 +7682,7 @@
         <v>1744</v>
       </c>
     </row>
-    <row r="150" spans="1:4" ht="12" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:6" ht="12" x14ac:dyDescent="0.2">
       <c r="A150" s="2">
         <v>1323</v>
       </c>
@@ -7532,7 +7694,7 @@
       </c>
       <c r="D150" s="5"/>
     </row>
-    <row r="151" spans="1:4" ht="24" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:6" ht="24" x14ac:dyDescent="0.2">
       <c r="A151" s="2">
         <v>1325</v>
       </c>
@@ -7544,7 +7706,7 @@
       </c>
       <c r="D151" s="5"/>
     </row>
-    <row r="152" spans="1:4" ht="24" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:6" ht="24" x14ac:dyDescent="0.2">
       <c r="A152" s="2">
         <v>1330</v>
       </c>
@@ -7557,8 +7719,11 @@
       <c r="D152" s="5" t="s">
         <v>1745</v>
       </c>
-    </row>
-    <row r="153" spans="1:4" ht="24" x14ac:dyDescent="0.2">
+      <c r="F152" s="5" t="s">
+        <v>1811</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" ht="24" x14ac:dyDescent="0.2">
       <c r="A153" s="2">
         <v>1335</v>
       </c>
@@ -7570,7 +7735,7 @@
       </c>
       <c r="D153" s="5"/>
     </row>
-    <row r="154" spans="1:4" ht="12" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:6" ht="12" x14ac:dyDescent="0.2">
       <c r="A154" s="2">
         <v>1341</v>
       </c>
@@ -7583,8 +7748,11 @@
       <c r="D154" s="5" t="s">
         <v>1761</v>
       </c>
-    </row>
-    <row r="155" spans="1:4" ht="12" x14ac:dyDescent="0.2">
+      <c r="F154" s="5" t="s">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" ht="12" x14ac:dyDescent="0.2">
       <c r="A155" s="2">
         <v>1342</v>
       </c>
@@ -7596,7 +7764,7 @@
       </c>
       <c r="D155" s="5"/>
     </row>
-    <row r="156" spans="1:4" ht="12" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:6" ht="12" x14ac:dyDescent="0.2">
       <c r="A156" s="2">
         <v>1343</v>
       </c>
@@ -7608,7 +7776,7 @@
       </c>
       <c r="D156" s="5"/>
     </row>
-    <row r="157" spans="1:4" ht="12" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:6" ht="12" x14ac:dyDescent="0.2">
       <c r="A157" s="2">
         <v>1344</v>
       </c>
@@ -7620,7 +7788,7 @@
       </c>
       <c r="D157" s="5"/>
     </row>
-    <row r="158" spans="1:4" ht="12" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:6" ht="12" x14ac:dyDescent="0.2">
       <c r="A158" s="2">
         <v>1350</v>
       </c>
@@ -7632,7 +7800,7 @@
       </c>
       <c r="D158" s="5"/>
     </row>
-    <row r="159" spans="1:4" ht="12" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:6" ht="12" x14ac:dyDescent="0.2">
       <c r="A159" s="2">
         <v>1351</v>
       </c>
@@ -7644,7 +7812,7 @@
       </c>
       <c r="D159" s="5"/>
     </row>
-    <row r="160" spans="1:4" ht="12" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:6" ht="12" x14ac:dyDescent="0.2">
       <c r="A160" s="2">
         <v>1352</v>
       </c>
@@ -7847,7 +8015,7 @@
       </c>
       <c r="D176" s="5"/>
     </row>
-    <row r="177" spans="1:5" ht="12" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:6" ht="12" x14ac:dyDescent="0.2">
       <c r="A177" s="2">
         <v>1415</v>
       </c>
@@ -7859,7 +8027,7 @@
       </c>
       <c r="D177" s="5"/>
     </row>
-    <row r="178" spans="1:5" ht="12" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:6" ht="12" x14ac:dyDescent="0.2">
       <c r="A178" s="2">
         <v>1418</v>
       </c>
@@ -7871,7 +8039,7 @@
       </c>
       <c r="D178" s="5"/>
     </row>
-    <row r="179" spans="1:5" ht="12" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:6" ht="12" x14ac:dyDescent="0.2">
       <c r="A179" s="2">
         <v>1422</v>
       </c>
@@ -7884,8 +8052,11 @@
       <c r="D179" s="5" t="s">
         <v>1743</v>
       </c>
-    </row>
-    <row r="180" spans="1:5" ht="12" x14ac:dyDescent="0.2">
+      <c r="F179" s="5" t="s">
+        <v>1799</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" ht="12" x14ac:dyDescent="0.2">
       <c r="A180" s="2">
         <v>1425</v>
       </c>
@@ -7897,7 +8068,7 @@
       </c>
       <c r="D180" s="5"/>
     </row>
-    <row r="181" spans="1:5" ht="12" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:6" ht="12" x14ac:dyDescent="0.2">
       <c r="A181" s="2">
         <v>1428</v>
       </c>
@@ -7909,7 +8080,7 @@
       </c>
       <c r="D181" s="5"/>
     </row>
-    <row r="182" spans="1:5" ht="12" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:6" ht="12" x14ac:dyDescent="0.2">
       <c r="A182" s="2" t="s">
         <v>1233</v>
       </c>
@@ -7921,7 +8092,7 @@
       </c>
       <c r="D182" s="5"/>
     </row>
-    <row r="183" spans="1:5" ht="12" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:6" ht="12" x14ac:dyDescent="0.2">
       <c r="A183" s="2" t="s">
         <v>1235</v>
       </c>
@@ -7933,7 +8104,7 @@
       </c>
       <c r="D183" s="5"/>
     </row>
-    <row r="184" spans="1:5" ht="12" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:6" ht="12" x14ac:dyDescent="0.2">
       <c r="A184" s="2" t="s">
         <v>1237</v>
       </c>
@@ -7945,7 +8116,7 @@
       </c>
       <c r="D184" s="5"/>
     </row>
-    <row r="185" spans="1:5" ht="12" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:6" ht="12" x14ac:dyDescent="0.2">
       <c r="A185" s="2">
         <v>1434</v>
       </c>
@@ -7958,8 +8129,11 @@
       <c r="D185" s="5" t="s">
         <v>1764</v>
       </c>
-    </row>
-    <row r="186" spans="1:5" ht="12" x14ac:dyDescent="0.2">
+      <c r="F185" s="5" t="s">
+        <v>1802</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" ht="12" x14ac:dyDescent="0.2">
       <c r="A186" s="2">
         <v>1435</v>
       </c>
@@ -7971,7 +8145,7 @@
       </c>
       <c r="D186" s="5"/>
     </row>
-    <row r="187" spans="1:5" ht="12" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:6" ht="12" x14ac:dyDescent="0.2">
       <c r="A187" s="2">
         <v>1438</v>
       </c>
@@ -7983,7 +8157,7 @@
       </c>
       <c r="D187" s="5"/>
     </row>
-    <row r="188" spans="1:5" ht="12" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:6" ht="12" x14ac:dyDescent="0.2">
       <c r="A188" s="3" t="s">
         <v>1241</v>
       </c>
@@ -7996,8 +8170,11 @@
       <c r="D188" s="5" t="s">
         <v>1741</v>
       </c>
-    </row>
-    <row r="189" spans="1:5" ht="12" x14ac:dyDescent="0.2">
+      <c r="F188" s="5" t="s">
+        <v>1805</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" ht="12" x14ac:dyDescent="0.2">
       <c r="A189" s="2">
         <v>1448</v>
       </c>
@@ -8010,8 +8187,11 @@
       <c r="D189" s="5" t="s">
         <v>1742</v>
       </c>
-    </row>
-    <row r="190" spans="1:5" ht="12" x14ac:dyDescent="0.2">
+      <c r="F189" s="5" t="s">
+        <v>1798</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" ht="12" x14ac:dyDescent="0.2">
       <c r="A190" s="2">
         <v>1450</v>
       </c>
@@ -8028,7 +8208,7 @@
         <v>1753</v>
       </c>
     </row>
-    <row r="191" spans="1:5" ht="12" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:6" ht="12" x14ac:dyDescent="0.2">
       <c r="A191" s="2">
         <v>1460</v>
       </c>
@@ -8040,7 +8220,7 @@
       </c>
       <c r="D191" s="5"/>
     </row>
-    <row r="192" spans="1:5" ht="12" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:6" ht="12" x14ac:dyDescent="0.2">
       <c r="A192" s="2">
         <v>1461</v>
       </c>
@@ -8176,6 +8356,9 @@
       <c r="D202" s="5" t="s">
         <v>1711</v>
       </c>
+      <c r="F202" s="5" t="s">
+        <v>1786</v>
+      </c>
     </row>
     <row r="203" spans="1:6" ht="12" x14ac:dyDescent="0.2">
       <c r="A203" s="2">
@@ -8238,6 +8421,9 @@
       <c r="D207" s="5" t="s">
         <v>1740</v>
       </c>
+      <c r="F207" s="5" t="s">
+        <v>1803</v>
+      </c>
     </row>
     <row r="208" spans="1:6" ht="12" x14ac:dyDescent="0.2">
       <c r="A208" s="2">
@@ -8264,6 +8450,9 @@
       <c r="D209" s="5" t="s">
         <v>1712</v>
       </c>
+      <c r="F209" s="5" t="s">
+        <v>1787</v>
+      </c>
     </row>
     <row r="210" spans="1:6" ht="12" x14ac:dyDescent="0.2">
       <c r="A210" s="2">
@@ -8302,6 +8491,9 @@
       <c r="D212" s="5" t="s">
         <v>1710</v>
       </c>
+      <c r="E212" s="5" t="s">
+        <v>1788</v>
+      </c>
     </row>
     <row r="213" spans="1:6" ht="12" x14ac:dyDescent="0.2">
       <c r="A213" s="2">
@@ -10819,6 +11011,9 @@
       <c r="D436" s="5" t="s">
         <v>1759</v>
       </c>
+      <c r="F436" s="5" t="s">
+        <v>1821</v>
+      </c>
     </row>
     <row r="437" spans="1:6" ht="12" x14ac:dyDescent="0.2">
       <c r="A437" s="2">
@@ -12362,6 +12557,9 @@
       <c r="D567" s="5" t="s">
         <v>1735</v>
       </c>
+      <c r="E567" s="5" t="s">
+        <v>1775</v>
+      </c>
     </row>
     <row r="568" spans="1:6" ht="12" x14ac:dyDescent="0.2">
       <c r="A568" s="2">
@@ -13313,6 +13511,9 @@
         <v>90</v>
       </c>
       <c r="D648" s="5"/>
+      <c r="E648" s="5" t="s">
+        <v>1776</v>
+      </c>
     </row>
     <row r="649" spans="1:6" ht="12" x14ac:dyDescent="0.2">
       <c r="A649" s="2">
@@ -15270,7 +15471,7 @@
       </c>
       <c r="D816" s="5"/>
     </row>
-    <row r="817" spans="1:4" ht="12" x14ac:dyDescent="0.2">
+    <row r="817" spans="1:6" ht="12" x14ac:dyDescent="0.2">
       <c r="A817" s="2">
         <v>6914</v>
       </c>
@@ -15282,7 +15483,7 @@
       </c>
       <c r="D817" s="5"/>
     </row>
-    <row r="818" spans="1:4" ht="12" x14ac:dyDescent="0.2">
+    <row r="818" spans="1:6" ht="12" x14ac:dyDescent="0.2">
       <c r="A818" s="2">
         <v>6915</v>
       </c>
@@ -15294,7 +15495,7 @@
       </c>
       <c r="D818" s="5"/>
     </row>
-    <row r="819" spans="1:4" ht="12" x14ac:dyDescent="0.2">
+    <row r="819" spans="1:6" ht="12" x14ac:dyDescent="0.2">
       <c r="A819" s="2">
         <v>6916</v>
       </c>
@@ -15306,7 +15507,7 @@
       </c>
       <c r="D819" s="5"/>
     </row>
-    <row r="820" spans="1:4" ht="12" x14ac:dyDescent="0.2">
+    <row r="820" spans="1:6" ht="12" x14ac:dyDescent="0.2">
       <c r="A820" s="2">
         <v>6917</v>
       </c>
@@ -15318,7 +15519,7 @@
       </c>
       <c r="D820" s="5"/>
     </row>
-    <row r="821" spans="1:4" ht="12" x14ac:dyDescent="0.2">
+    <row r="821" spans="1:6" ht="12" x14ac:dyDescent="0.2">
       <c r="A821" s="2">
         <v>6918</v>
       </c>
@@ -15330,7 +15531,7 @@
       </c>
       <c r="D821" s="5"/>
     </row>
-    <row r="822" spans="1:4" ht="12" x14ac:dyDescent="0.2">
+    <row r="822" spans="1:6" ht="12" x14ac:dyDescent="0.2">
       <c r="A822" s="2">
         <v>6920</v>
       </c>
@@ -15343,8 +15544,11 @@
       <c r="D822" s="5" t="s">
         <v>1758</v>
       </c>
-    </row>
-    <row r="823" spans="1:4" ht="12" x14ac:dyDescent="0.2">
+      <c r="F822" s="5" t="s">
+        <v>1812</v>
+      </c>
+    </row>
+    <row r="823" spans="1:6" ht="12" x14ac:dyDescent="0.2">
       <c r="A823" s="2">
         <v>6922</v>
       </c>
@@ -15356,7 +15560,7 @@
       </c>
       <c r="D823" s="5"/>
     </row>
-    <row r="824" spans="1:4" ht="12" x14ac:dyDescent="0.2">
+    <row r="824" spans="1:6" ht="12" x14ac:dyDescent="0.2">
       <c r="A824" s="2">
         <v>6925</v>
       </c>
@@ -15367,8 +15571,11 @@
         <v>1388</v>
       </c>
       <c r="D824" s="5"/>
-    </row>
-    <row r="825" spans="1:4" ht="12" x14ac:dyDescent="0.2">
+      <c r="F824" s="5" t="s">
+        <v>1809</v>
+      </c>
+    </row>
+    <row r="825" spans="1:6" ht="12" x14ac:dyDescent="0.2">
       <c r="A825" s="2">
         <v>6930</v>
       </c>
@@ -15379,8 +15586,11 @@
         <v>1389</v>
       </c>
       <c r="D825" s="5"/>
-    </row>
-    <row r="826" spans="1:4" ht="12" x14ac:dyDescent="0.2">
+      <c r="F825" s="5" t="s">
+        <v>1810</v>
+      </c>
+    </row>
+    <row r="826" spans="1:6" ht="12" x14ac:dyDescent="0.2">
       <c r="A826" s="2">
         <v>6938</v>
       </c>
@@ -15392,7 +15602,7 @@
       </c>
       <c r="D826" s="5"/>
     </row>
-    <row r="827" spans="1:4" ht="12" x14ac:dyDescent="0.2">
+    <row r="827" spans="1:6" ht="12" x14ac:dyDescent="0.2">
       <c r="A827" s="2">
         <v>6940</v>
       </c>
@@ -15406,7 +15616,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="828" spans="1:4" ht="12" x14ac:dyDescent="0.2">
+    <row r="828" spans="1:6" ht="12" x14ac:dyDescent="0.2">
       <c r="A828" s="2">
         <v>6943</v>
       </c>
@@ -15418,7 +15628,7 @@
       </c>
       <c r="D828" s="5"/>
     </row>
-    <row r="829" spans="1:4" ht="12" x14ac:dyDescent="0.2">
+    <row r="829" spans="1:6" ht="12" x14ac:dyDescent="0.2">
       <c r="A829" s="2">
         <v>6947</v>
       </c>
@@ -15430,7 +15640,7 @@
       </c>
       <c r="D829" s="5"/>
     </row>
-    <row r="830" spans="1:4" ht="12" x14ac:dyDescent="0.2">
+    <row r="830" spans="1:6" ht="12" x14ac:dyDescent="0.2">
       <c r="A830" s="2">
         <v>6953</v>
       </c>
@@ -15442,7 +15652,7 @@
       </c>
       <c r="D830" s="5"/>
     </row>
-    <row r="831" spans="1:4" ht="12" x14ac:dyDescent="0.2">
+    <row r="831" spans="1:6" ht="12" x14ac:dyDescent="0.2">
       <c r="A831" s="2">
         <v>6955</v>
       </c>
@@ -15453,8 +15663,11 @@
         <v>1395</v>
       </c>
       <c r="D831" s="5"/>
-    </row>
-    <row r="832" spans="1:4" ht="12" x14ac:dyDescent="0.2">
+      <c r="F831" s="5" t="s">
+        <v>1820</v>
+      </c>
+    </row>
+    <row r="832" spans="1:6" ht="12" x14ac:dyDescent="0.2">
       <c r="A832" s="2">
         <v>6957</v>
       </c>
@@ -15532,10 +15745,15 @@
       <c r="B838" s="2">
         <v>7001</v>
       </c>
-      <c r="C838" s="2" t="s">
+      <c r="C838" s="4" t="s">
+        <v>1792</v>
+      </c>
+      <c r="D838" s="5" t="s">
+        <v>1791</v>
+      </c>
+      <c r="E838" s="2" t="s">
         <v>1716</v>
       </c>
-      <c r="D838" s="5"/>
     </row>
     <row r="839" spans="1:6" ht="12" x14ac:dyDescent="0.2">
       <c r="A839" s="2">
@@ -15562,6 +15780,9 @@
       <c r="D840" s="5" t="s">
         <v>1705</v>
       </c>
+      <c r="E840" s="5" t="s">
+        <v>1780</v>
+      </c>
     </row>
     <row r="841" spans="1:6" ht="12" x14ac:dyDescent="0.2">
       <c r="A841" s="2">
@@ -15573,7 +15794,15 @@
       <c r="C841" s="2" t="s">
         <v>1402</v>
       </c>
-      <c r="D841" s="5"/>
+      <c r="D841" s="5" t="s">
+        <v>1814</v>
+      </c>
+      <c r="E841" s="5" t="s">
+        <v>1781</v>
+      </c>
+      <c r="F841" s="5" t="s">
+        <v>1815</v>
+      </c>
     </row>
     <row r="842" spans="1:6" ht="12" x14ac:dyDescent="0.2">
       <c r="A842" s="2">
@@ -15588,6 +15817,12 @@
       <c r="D842" s="5" t="s">
         <v>1704</v>
       </c>
+      <c r="E842" s="5" t="s">
+        <v>1782</v>
+      </c>
+      <c r="F842" s="5" t="s">
+        <v>1816</v>
+      </c>
     </row>
     <row r="843" spans="1:6" ht="12" x14ac:dyDescent="0.2">
       <c r="A843" s="2" t="s">
@@ -15602,6 +15837,9 @@
       <c r="D843" s="5" t="s">
         <v>1706</v>
       </c>
+      <c r="F843" s="5" t="s">
+        <v>1813</v>
+      </c>
     </row>
     <row r="844" spans="1:6" ht="12" x14ac:dyDescent="0.2">
       <c r="A844" s="2">
@@ -15616,6 +15854,12 @@
       <c r="D844" s="5" t="s">
         <v>1707</v>
       </c>
+      <c r="E844" s="5" t="s">
+        <v>1783</v>
+      </c>
+      <c r="F844" s="5" t="s">
+        <v>1822</v>
+      </c>
     </row>
     <row r="845" spans="1:6" ht="12" x14ac:dyDescent="0.2">
       <c r="A845" s="2">
@@ -15642,6 +15886,9 @@
       <c r="D846" s="5" t="s">
         <v>1709</v>
       </c>
+      <c r="F846" s="5" t="s">
+        <v>1794</v>
+      </c>
     </row>
     <row r="847" spans="1:6" ht="12" x14ac:dyDescent="0.2">
       <c r="A847" s="2">
@@ -15736,6 +15983,12 @@
       <c r="D854" s="5" t="s">
         <v>1708</v>
       </c>
+      <c r="E854" s="5" t="s">
+        <v>1779</v>
+      </c>
+      <c r="F854" s="5" t="s">
+        <v>1797</v>
+      </c>
     </row>
     <row r="855" spans="1:6" ht="12" x14ac:dyDescent="0.2">
       <c r="A855" s="2">
@@ -15748,6 +16001,9 @@
       <c r="D855" s="5" t="s">
         <v>1717</v>
       </c>
+      <c r="F855" s="5" t="s">
+        <v>1793</v>
+      </c>
     </row>
     <row r="856" spans="1:6" ht="12" x14ac:dyDescent="0.2">
       <c r="A856" s="2">
@@ -15856,7 +16112,7 @@
       </c>
       <c r="D864" s="5"/>
     </row>
-    <row r="865" spans="1:4" ht="12" x14ac:dyDescent="0.2">
+    <row r="865" spans="1:6" ht="12" x14ac:dyDescent="0.2">
       <c r="A865" s="2">
         <v>7507</v>
       </c>
@@ -15868,7 +16124,7 @@
       </c>
       <c r="D865" s="5"/>
     </row>
-    <row r="866" spans="1:4" ht="12" x14ac:dyDescent="0.2">
+    <row r="866" spans="1:6" ht="12" x14ac:dyDescent="0.2">
       <c r="A866" s="2">
         <v>7508</v>
       </c>
@@ -15880,7 +16136,7 @@
       </c>
       <c r="D866" s="5"/>
     </row>
-    <row r="867" spans="1:4" ht="12" x14ac:dyDescent="0.2">
+    <row r="867" spans="1:6" ht="12" x14ac:dyDescent="0.2">
       <c r="A867" s="2">
         <v>7509</v>
       </c>
@@ -15892,7 +16148,7 @@
       </c>
       <c r="D867" s="5"/>
     </row>
-    <row r="868" spans="1:4" ht="12" x14ac:dyDescent="0.2">
+    <row r="868" spans="1:6" ht="12" x14ac:dyDescent="0.2">
       <c r="A868" s="2" t="s">
         <v>717</v>
       </c>
@@ -15904,7 +16160,7 @@
       </c>
       <c r="D868" s="5"/>
     </row>
-    <row r="869" spans="1:4" ht="12" x14ac:dyDescent="0.2">
+    <row r="869" spans="1:6" ht="12" x14ac:dyDescent="0.2">
       <c r="A869" s="2" t="s">
         <v>1423</v>
       </c>
@@ -15916,7 +16172,7 @@
       </c>
       <c r="D869" s="5"/>
     </row>
-    <row r="870" spans="1:4" ht="12" x14ac:dyDescent="0.2">
+    <row r="870" spans="1:6" ht="12" x14ac:dyDescent="0.2">
       <c r="A870" s="2">
         <v>7511</v>
       </c>
@@ -15928,7 +16184,7 @@
       </c>
       <c r="D870" s="5"/>
     </row>
-    <row r="871" spans="1:4" ht="12" x14ac:dyDescent="0.2">
+    <row r="871" spans="1:6" ht="12" x14ac:dyDescent="0.2">
       <c r="A871" s="2" t="s">
         <v>633</v>
       </c>
@@ -15940,7 +16196,7 @@
       </c>
       <c r="D871" s="5"/>
     </row>
-    <row r="872" spans="1:4" ht="12" x14ac:dyDescent="0.2">
+    <row r="872" spans="1:6" ht="12" x14ac:dyDescent="0.2">
       <c r="A872" s="2">
         <v>7515</v>
       </c>
@@ -15952,7 +16208,7 @@
       </c>
       <c r="D872" s="5"/>
     </row>
-    <row r="873" spans="1:4" ht="12" x14ac:dyDescent="0.2">
+    <row r="873" spans="1:6" ht="12" x14ac:dyDescent="0.2">
       <c r="A873" s="2">
         <v>7516</v>
       </c>
@@ -15964,7 +16220,7 @@
       </c>
       <c r="D873" s="5"/>
     </row>
-    <row r="874" spans="1:4" ht="12" x14ac:dyDescent="0.2">
+    <row r="874" spans="1:6" ht="12" x14ac:dyDescent="0.2">
       <c r="A874" s="2">
         <v>7520</v>
       </c>
@@ -15976,7 +16232,7 @@
       </c>
       <c r="D874" s="5"/>
     </row>
-    <row r="875" spans="1:4" ht="12" x14ac:dyDescent="0.2">
+    <row r="875" spans="1:6" ht="12" x14ac:dyDescent="0.2">
       <c r="A875" s="2">
         <v>7521</v>
       </c>
@@ -15988,7 +16244,7 @@
       </c>
       <c r="D875" s="5"/>
     </row>
-    <row r="876" spans="1:4" ht="12" x14ac:dyDescent="0.2">
+    <row r="876" spans="1:6" ht="12" x14ac:dyDescent="0.2">
       <c r="A876" s="2">
         <v>7522</v>
       </c>
@@ -16000,7 +16256,7 @@
       </c>
       <c r="D876" s="5"/>
     </row>
-    <row r="877" spans="1:4" ht="12" x14ac:dyDescent="0.2">
+    <row r="877" spans="1:6" ht="12" x14ac:dyDescent="0.2">
       <c r="A877" s="2">
         <v>7523</v>
       </c>
@@ -16013,8 +16269,11 @@
       <c r="D877" s="5" t="s">
         <v>1719</v>
       </c>
-    </row>
-    <row r="878" spans="1:4" ht="12" x14ac:dyDescent="0.2">
+      <c r="F877" s="5" t="s">
+        <v>1796</v>
+      </c>
+    </row>
+    <row r="878" spans="1:6" ht="12" x14ac:dyDescent="0.2">
       <c r="A878" s="2">
         <v>7524</v>
       </c>
@@ -16027,8 +16286,11 @@
       <c r="D878" s="5" t="s">
         <v>1718</v>
       </c>
-    </row>
-    <row r="879" spans="1:4" ht="12" x14ac:dyDescent="0.2">
+      <c r="F878" s="5" t="s">
+        <v>1795</v>
+      </c>
+    </row>
+    <row r="879" spans="1:6" ht="12" x14ac:dyDescent="0.2">
       <c r="A879" s="2">
         <v>7525</v>
       </c>
@@ -16040,7 +16302,7 @@
       </c>
       <c r="D879" s="5"/>
     </row>
-    <row r="880" spans="1:4" ht="12" x14ac:dyDescent="0.2">
+    <row r="880" spans="1:6" ht="12" x14ac:dyDescent="0.2">
       <c r="A880" s="2">
         <v>7526</v>
       </c>
@@ -16050,7 +16312,12 @@
       <c r="C880" s="2" t="s">
         <v>1434</v>
       </c>
-      <c r="D880" s="5"/>
+      <c r="D880" s="5" t="s">
+        <v>1818</v>
+      </c>
+      <c r="F880" s="5" t="s">
+        <v>1817</v>
+      </c>
     </row>
     <row r="881" spans="1:6" ht="12" x14ac:dyDescent="0.2">
       <c r="A881" s="2">
@@ -16075,6 +16342,9 @@
         <v>1436</v>
       </c>
       <c r="D882" s="5"/>
+      <c r="F882" s="5" t="s">
+        <v>1819</v>
+      </c>
     </row>
     <row r="883" spans="1:6" ht="12" x14ac:dyDescent="0.2">
       <c r="A883" s="2">
@@ -18537,7 +18807,9 @@
       <c r="C1091" s="2" t="s">
         <v>1178</v>
       </c>
-      <c r="D1091" s="5"/>
+      <c r="D1091" s="5" t="s">
+        <v>1790</v>
+      </c>
     </row>
     <row r="1092" spans="1:4" ht="12" x14ac:dyDescent="0.2">
       <c r="A1092" s="2">
@@ -18671,7 +18943,7 @@
       </c>
       <c r="D1104" s="5"/>
     </row>
-    <row r="1105" spans="1:4" ht="12" x14ac:dyDescent="0.2">
+    <row r="1105" spans="1:6" ht="12" x14ac:dyDescent="0.2">
       <c r="A1105" s="2">
         <v>9525</v>
       </c>
@@ -18681,7 +18953,7 @@
       </c>
       <c r="D1105" s="5"/>
     </row>
-    <row r="1106" spans="1:4" ht="12" x14ac:dyDescent="0.2">
+    <row r="1106" spans="1:6" ht="12" x14ac:dyDescent="0.2">
       <c r="A1106" s="2">
         <v>9527</v>
       </c>
@@ -18691,7 +18963,7 @@
       </c>
       <c r="D1106" s="5"/>
     </row>
-    <row r="1107" spans="1:4" ht="12" x14ac:dyDescent="0.2">
+    <row r="1107" spans="1:6" ht="12" x14ac:dyDescent="0.2">
       <c r="A1107" s="2" t="s">
         <v>643</v>
       </c>
@@ -18701,7 +18973,7 @@
       </c>
       <c r="D1107" s="5"/>
     </row>
-    <row r="1108" spans="1:4" ht="12" x14ac:dyDescent="0.2">
+    <row r="1108" spans="1:6" ht="12" x14ac:dyDescent="0.2">
       <c r="A1108" s="2">
         <v>9530</v>
       </c>
@@ -18711,7 +18983,7 @@
       </c>
       <c r="D1108" s="5"/>
     </row>
-    <row r="1109" spans="1:4" ht="12" x14ac:dyDescent="0.2">
+    <row r="1109" spans="1:6" ht="12" x14ac:dyDescent="0.2">
       <c r="A1109" s="2">
         <v>9531</v>
       </c>
@@ -18721,7 +18993,7 @@
       </c>
       <c r="D1109" s="5"/>
     </row>
-    <row r="1110" spans="1:4" ht="12" x14ac:dyDescent="0.2">
+    <row r="1110" spans="1:6" ht="12" x14ac:dyDescent="0.2">
       <c r="A1110" s="2">
         <v>9532</v>
       </c>
@@ -18731,7 +19003,7 @@
       </c>
       <c r="D1110" s="5"/>
     </row>
-    <row r="1111" spans="1:4" ht="12" x14ac:dyDescent="0.2">
+    <row r="1111" spans="1:6" ht="12" x14ac:dyDescent="0.2">
       <c r="A1111" s="2">
         <v>9535</v>
       </c>
@@ -18741,7 +19013,7 @@
       </c>
       <c r="D1111" s="5"/>
     </row>
-    <row r="1112" spans="1:4" ht="12" x14ac:dyDescent="0.2">
+    <row r="1112" spans="1:6" ht="12" x14ac:dyDescent="0.2">
       <c r="A1112" s="2">
         <v>9537</v>
       </c>
@@ -18751,17 +19023,25 @@
       </c>
       <c r="D1112" s="5"/>
     </row>
-    <row r="1113" spans="1:4" ht="12" x14ac:dyDescent="0.2">
+    <row r="1113" spans="1:6" ht="12" x14ac:dyDescent="0.2">
       <c r="A1113" s="2">
         <v>9540</v>
       </c>
       <c r="B1113" s="2"/>
-      <c r="C1113" s="2" t="s">
+      <c r="C1113" s="4" t="s">
+        <v>1777</v>
+      </c>
+      <c r="D1113" s="5" t="s">
+        <v>1778</v>
+      </c>
+      <c r="E1113" s="2" t="s">
         <v>1199</v>
       </c>
-      <c r="D1113" s="5"/>
-    </row>
-    <row r="1114" spans="1:4" ht="12" x14ac:dyDescent="0.2">
+      <c r="F1113" s="5" t="s">
+        <v>1804</v>
+      </c>
+    </row>
+    <row r="1114" spans="1:6" ht="12" x14ac:dyDescent="0.2">
       <c r="A1114" s="2">
         <v>9541</v>
       </c>
@@ -18771,7 +19051,7 @@
       </c>
       <c r="D1114" s="5"/>
     </row>
-    <row r="1115" spans="1:4" ht="12" x14ac:dyDescent="0.2">
+    <row r="1115" spans="1:6" ht="12" x14ac:dyDescent="0.2">
       <c r="A1115" s="2">
         <v>9543</v>
       </c>
@@ -18781,7 +19061,7 @@
       </c>
       <c r="D1115" s="5"/>
     </row>
-    <row r="1116" spans="1:4" ht="12" x14ac:dyDescent="0.2">
+    <row r="1116" spans="1:6" ht="12" x14ac:dyDescent="0.2">
       <c r="A1116" s="2">
         <v>9545</v>
       </c>
@@ -18791,7 +19071,7 @@
       </c>
       <c r="D1116" s="5"/>
     </row>
-    <row r="1117" spans="1:4" ht="12" x14ac:dyDescent="0.2">
+    <row r="1117" spans="1:6" ht="12" x14ac:dyDescent="0.2">
       <c r="A1117" s="2">
         <v>9547</v>
       </c>
@@ -18801,7 +19081,7 @@
       </c>
       <c r="D1117" s="5"/>
     </row>
-    <row r="1118" spans="1:4" ht="12" x14ac:dyDescent="0.2">
+    <row r="1118" spans="1:6" ht="12" x14ac:dyDescent="0.2">
       <c r="A1118" s="2">
         <v>9549</v>
       </c>
@@ -18811,7 +19091,7 @@
       </c>
       <c r="D1118" s="5"/>
     </row>
-    <row r="1119" spans="1:4" ht="12" x14ac:dyDescent="0.2">
+    <row r="1119" spans="1:6" ht="12" x14ac:dyDescent="0.2">
       <c r="A1119" s="2">
         <v>9554</v>
       </c>
@@ -18821,7 +19101,7 @@
       </c>
       <c r="D1119" s="5"/>
     </row>
-    <row r="1120" spans="1:4" ht="12" x14ac:dyDescent="0.2">
+    <row r="1120" spans="1:6" ht="12" x14ac:dyDescent="0.2">
       <c r="A1120" s="2">
         <v>9555</v>
       </c>
@@ -19588,7 +19868,7 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:C6 A1021:C1047 A802:C837 A801:B801 A13:C24 A12:B12 A760:B760 A759:B759 A773:C800 A772:B772 A1050:C1048576 A1048 C1048 A1049 C1049 A26:C67 B25:C25 A568:C593 A567:B567 A771:B771 A761:B761 A839:C1020 A838:B838 A762:B762 A763:B763 A764:B764 A765:B765 A766:B766 A767:B767 A768:B768 A769:B769 A770:B770 A758:B758 A148:C566 A147:B147 A69:C146 A68 C68 A8:C11 A7:B7 A595:C757 A594:B594" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:C6 A1021:C1047 A802:C837 A801:B801 A13:C24 A12:B12 A760:B760 A759:B759 A773:C800 A772:B772 A1050:C1112 A1048 C1048 A1049 C1049 A26:C67 B25:C25 A568:C593 A567:B567 A771:B771 A761:B761 A839:C873 A838:B838 A762:B762 A763:B763 A764:B764 A765:B765 A766:B766 A767:B767 A768:B768 A769:B769 A770:B770 A758:B758 A148:C566 A147:B147 A69:C146 A68 C68 A8:C11 A7:B7 A595:C757 A594:B594 A1114:C1048576 A1113:B1113 A875:C1020 A874:B874" numberStoredAsText="1"/>
   </ignoredErrors>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">

--- a/sources/NIST-agencies-bureaus.xlsx
+++ b/sources/NIST-agencies-bureaus.xlsx
@@ -3782,9 +3782,6 @@
     <t xml:space="preserve">National Indian Gaming Commission </t>
   </si>
   <si>
-    <t xml:space="preserve">Offices, Boards and Divisions </t>
-  </si>
-  <si>
     <t>1524</t>
   </si>
   <si>
@@ -5490,6 +5487,9 @@
   </si>
   <si>
     <t>Commissioner of U.S. Customs and Border Protection</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Offices, Boards and Divisions (includes the following: Attorney General, Deputy Attorney General, Associate Attorney General, Office of Policy Development, Office of Public Affairs, Office of Legislative Affairs, Office of Legal Counsel, Solicitor General, Criminal Division, Civil Division, Civil Rights Division, Antitrust Division, Tax Division, Environment and Natural Resources Division, Justice Management Division, Office of Professional Responsibility, Office of the Pardon Attorney, U.S. National Central Bureau-INTERPOL, U.S. Parole Commission, Office of Intelligence Policy and Review, Foreign Claims Settlement Commission, Office of Information and Privacy, and Community Oriented Policing Services) </t>
   </si>
 </sst>
 </file>
@@ -5927,8 +5927,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F1185"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" topLeftCell="B175" workbookViewId="0">
+      <selection activeCell="C200" sqref="C200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5952,13 +5952,13 @@
         <v>470</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>1660</v>
+        <v>1659</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>1662</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="12" x14ac:dyDescent="0.2">
@@ -6027,7 +6027,7 @@
         <v>471</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>1747</v>
+        <v>1746</v>
       </c>
       <c r="D7" s="5"/>
     </row>
@@ -6042,7 +6042,7 @@
         <v>481</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="12" x14ac:dyDescent="0.2">
@@ -6076,7 +6076,7 @@
         <v>487</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>1746</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="12" x14ac:dyDescent="0.2">
@@ -6087,10 +6087,10 @@
         <v>471</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>1661</v>
+        <v>1660</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>489</v>
@@ -6134,10 +6134,10 @@
         <v>495</v>
       </c>
       <c r="D15" s="5" t="s">
+        <v>1783</v>
+      </c>
+      <c r="F15" s="5" t="s">
         <v>1784</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>1785</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="12" x14ac:dyDescent="0.2">
@@ -6240,7 +6240,7 @@
     </row>
     <row r="25" spans="1:4" ht="12" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
       <c r="B25" s="3"/>
       <c r="C25" s="2" t="s">
@@ -6412,7 +6412,7 @@
       </c>
       <c r="D41" s="5"/>
       <c r="F41" s="5" t="s">
-        <v>1801</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="12" x14ac:dyDescent="0.2">
@@ -6526,10 +6526,10 @@
         <v>785</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>1766</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="12" x14ac:dyDescent="0.2">
@@ -6555,7 +6555,7 @@
         <v>787</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>1664</v>
+        <v>1663</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="12" x14ac:dyDescent="0.2">
@@ -6708,7 +6708,7 @@
       </c>
       <c r="D66" s="5"/>
       <c r="F66" s="5" t="s">
-        <v>1806</v>
+        <v>1805</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="12" x14ac:dyDescent="0.2">
@@ -6846,10 +6846,10 @@
         <v>821</v>
       </c>
       <c r="D79" s="5" t="s">
+        <v>1806</v>
+      </c>
+      <c r="F79" s="5" t="s">
         <v>1807</v>
-      </c>
-      <c r="F79" s="5" t="s">
-        <v>1808</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="12" x14ac:dyDescent="0.2">
@@ -6911,10 +6911,10 @@
         <v>504</v>
       </c>
       <c r="D85" s="5" t="s">
-        <v>1667</v>
+        <v>1666</v>
       </c>
       <c r="F85" s="5" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
     </row>
     <row r="86" spans="1:6" ht="12" x14ac:dyDescent="0.2">
@@ -7590,10 +7590,10 @@
         <v>505</v>
       </c>
       <c r="D142" s="5" t="s">
-        <v>1789</v>
+        <v>1788</v>
       </c>
       <c r="F142" s="5" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
     </row>
     <row r="143" spans="1:6" ht="12" x14ac:dyDescent="0.2">
@@ -7679,7 +7679,7 @@
         <v>369</v>
       </c>
       <c r="D149" s="5" t="s">
-        <v>1744</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="150" spans="1:6" ht="12" x14ac:dyDescent="0.2">
@@ -7717,10 +7717,10 @@
         <v>372</v>
       </c>
       <c r="D152" s="5" t="s">
-        <v>1745</v>
+        <v>1744</v>
       </c>
       <c r="F152" s="5" t="s">
-        <v>1811</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="153" spans="1:6" ht="24" x14ac:dyDescent="0.2">
@@ -7746,10 +7746,10 @@
         <v>374</v>
       </c>
       <c r="D154" s="5" t="s">
-        <v>1761</v>
+        <v>1760</v>
       </c>
       <c r="F154" s="5" t="s">
-        <v>1800</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="155" spans="1:6" ht="12" x14ac:dyDescent="0.2">
@@ -7865,10 +7865,10 @@
         <v>506</v>
       </c>
       <c r="D164" s="5" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="F164" s="5" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="165" spans="1:6" ht="12" x14ac:dyDescent="0.2">
@@ -8050,10 +8050,10 @@
         <v>1230</v>
       </c>
       <c r="D179" s="5" t="s">
-        <v>1743</v>
+        <v>1742</v>
       </c>
       <c r="F179" s="5" t="s">
-        <v>1799</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="180" spans="1:6" ht="12" x14ac:dyDescent="0.2">
@@ -8127,10 +8127,10 @@
         <v>1239</v>
       </c>
       <c r="D185" s="5" t="s">
-        <v>1764</v>
+        <v>1763</v>
       </c>
       <c r="F185" s="5" t="s">
-        <v>1802</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="186" spans="1:6" ht="12" x14ac:dyDescent="0.2">
@@ -8168,10 +8168,10 @@
         <v>1242</v>
       </c>
       <c r="D188" s="5" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
       <c r="F188" s="5" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="189" spans="1:6" ht="12" x14ac:dyDescent="0.2">
@@ -8185,10 +8185,10 @@
         <v>1243</v>
       </c>
       <c r="D189" s="5" t="s">
-        <v>1742</v>
+        <v>1741</v>
       </c>
       <c r="F189" s="5" t="s">
-        <v>1798</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="190" spans="1:6" ht="12" x14ac:dyDescent="0.2">
@@ -8202,10 +8202,10 @@
         <v>1244</v>
       </c>
       <c r="D190" s="5" t="s">
+        <v>1751</v>
+      </c>
+      <c r="E190" s="5" t="s">
         <v>1752</v>
-      </c>
-      <c r="E190" s="5" t="s">
-        <v>1753</v>
       </c>
     </row>
     <row r="191" spans="1:6" ht="12" x14ac:dyDescent="0.2">
@@ -8313,13 +8313,13 @@
         <v>507</v>
       </c>
       <c r="D199" s="5" t="s">
+        <v>1670</v>
+      </c>
+      <c r="F199" s="5" t="s">
         <v>1671</v>
       </c>
-      <c r="F199" s="5" t="s">
-        <v>1672</v>
-      </c>
-    </row>
-    <row r="200" spans="1:6" ht="12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="200" spans="1:6" ht="108" x14ac:dyDescent="0.2">
       <c r="A200" s="2">
         <v>1501</v>
       </c>
@@ -8327,7 +8327,7 @@
         <v>1500</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>1253</v>
+        <v>1822</v>
       </c>
       <c r="D200" s="5"/>
     </row>
@@ -8345,19 +8345,19 @@
     </row>
     <row r="202" spans="1:6" ht="12" x14ac:dyDescent="0.2">
       <c r="A202" s="3" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="B202" s="2">
         <v>1500</v>
       </c>
       <c r="C202" s="3" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="D202" s="5" t="s">
-        <v>1711</v>
+        <v>1710</v>
       </c>
       <c r="F202" s="5" t="s">
-        <v>1786</v>
+        <v>1785</v>
       </c>
     </row>
     <row r="203" spans="1:6" ht="12" x14ac:dyDescent="0.2">
@@ -8368,7 +8368,7 @@
         <v>1500</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="D203" s="5"/>
     </row>
@@ -8380,7 +8380,7 @@
         <v>1500</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="D204" s="5"/>
     </row>
@@ -8392,7 +8392,7 @@
         <v>1500</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="D205" s="5"/>
     </row>
@@ -8404,7 +8404,7 @@
         <v>1500</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="D206" s="5"/>
     </row>
@@ -8416,13 +8416,13 @@
         <v>1500</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="D207" s="5" t="s">
-        <v>1740</v>
+        <v>1739</v>
       </c>
       <c r="F207" s="5" t="s">
-        <v>1803</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="208" spans="1:6" ht="12" x14ac:dyDescent="0.2">
@@ -8433,7 +8433,7 @@
         <v>1500</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="D208" s="5"/>
     </row>
@@ -8445,13 +8445,13 @@
         <v>1500</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="D209" s="5" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="F209" s="5" t="s">
-        <v>1787</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="210" spans="1:6" ht="12" x14ac:dyDescent="0.2">
@@ -8462,7 +8462,7 @@
         <v>1500</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="D210" s="5"/>
     </row>
@@ -8474,7 +8474,7 @@
         <v>1500</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="D211" s="5"/>
     </row>
@@ -8486,13 +8486,13 @@
         <v>1500</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="D212" s="5" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
       <c r="E212" s="5" t="s">
-        <v>1788</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="213" spans="1:6" ht="12" x14ac:dyDescent="0.2">
@@ -8504,10 +8504,10 @@
         <v>508</v>
       </c>
       <c r="D213" s="5" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
       <c r="F213" s="5" t="s">
-        <v>1673</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="214" spans="1:6" ht="12" x14ac:dyDescent="0.2">
@@ -8515,10 +8515,10 @@
         <v>1601</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="D214" s="5"/>
     </row>
@@ -8542,7 +8542,7 @@
         <v>1600</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="D216" s="5"/>
     </row>
@@ -8554,7 +8554,7 @@
         <v>1600</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="D217" s="5"/>
     </row>
@@ -8566,7 +8566,7 @@
         <v>1600</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="D218" s="5"/>
     </row>
@@ -8578,7 +8578,7 @@
         <v>1600</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="D219" s="5"/>
     </row>
@@ -8590,7 +8590,7 @@
         <v>1600</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="D220" s="5"/>
     </row>
@@ -8602,13 +8602,13 @@
         <v>1600</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="D221" s="5"/>
     </row>
     <row r="222" spans="1:6" ht="12" x14ac:dyDescent="0.2">
       <c r="A222" s="2" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="B222" s="2">
         <v>1600</v>
@@ -8623,7 +8623,7 @@
         <v>984</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="C223" s="2" t="s">
         <v>985</v>
@@ -8635,7 +8635,7 @@
         <v>1610</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="C224" s="2" t="s">
         <v>986</v>
@@ -8647,7 +8647,7 @@
         <v>1613</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="C225" s="2" t="s">
         <v>987</v>
@@ -8659,7 +8659,7 @@
         <v>1615</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="C226" s="2" t="s">
         <v>988</v>
@@ -8671,7 +8671,7 @@
         <v>1616</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="C227" s="2" t="s">
         <v>989</v>
@@ -8683,7 +8683,7 @@
         <v>1617</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="C228" s="2" t="s">
         <v>990</v>
@@ -8695,7 +8695,7 @@
         <v>1618</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="C229" s="2" t="s">
         <v>991</v>
@@ -8707,7 +8707,7 @@
         <v>1619</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="C230" s="2" t="s">
         <v>992</v>
@@ -8719,7 +8719,7 @@
         <v>1620</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="C231" s="2" t="s">
         <v>993</v>
@@ -8755,7 +8755,7 @@
         <v>1623</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="C234" s="2" t="s">
         <v>995</v>
@@ -8773,7 +8773,7 @@
         <v>996</v>
       </c>
       <c r="D235" s="5" t="s">
-        <v>1772</v>
+        <v>1771</v>
       </c>
     </row>
     <row r="236" spans="1:4" ht="12" x14ac:dyDescent="0.2">
@@ -8892,7 +8892,7 @@
       </c>
       <c r="D245" s="5"/>
       <c r="F245" s="5" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
     </row>
     <row r="246" spans="1:6" ht="12" x14ac:dyDescent="0.2">
@@ -9062,7 +9062,7 @@
         <v>1018</v>
       </c>
       <c r="D259" s="5" t="s">
-        <v>1771</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="260" spans="1:4" ht="12" x14ac:dyDescent="0.2">
@@ -9266,10 +9266,10 @@
         <v>514</v>
       </c>
       <c r="D276" s="5" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="E276" s="5" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="277" spans="1:6" ht="12" x14ac:dyDescent="0.2">
@@ -9336,7 +9336,7 @@
       </c>
       <c r="D282" s="5"/>
       <c r="F282" s="5" t="s">
-        <v>1677</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="283" spans="1:6" ht="12" x14ac:dyDescent="0.2">
@@ -9731,7 +9731,7 @@
         <v>1046</v>
       </c>
       <c r="C315" s="2" t="s">
-        <v>1623</v>
+        <v>1622</v>
       </c>
       <c r="D315" s="5"/>
     </row>
@@ -9743,7 +9743,7 @@
         <v>518</v>
       </c>
       <c r="C316" s="2" t="s">
-        <v>1624</v>
+        <v>1623</v>
       </c>
       <c r="D316" s="5"/>
     </row>
@@ -9755,7 +9755,7 @@
         <v>1941</v>
       </c>
       <c r="C317" s="2" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
       <c r="D317" s="5"/>
     </row>
@@ -9767,7 +9767,7 @@
         <v>1905</v>
       </c>
       <c r="C318" s="2" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
       <c r="D318" s="5"/>
     </row>
@@ -9779,7 +9779,7 @@
         <v>1913</v>
       </c>
       <c r="C319" s="2" t="s">
-        <v>1627</v>
+        <v>1626</v>
       </c>
       <c r="D319" s="5"/>
     </row>
@@ -9791,7 +9791,7 @@
         <v>1905</v>
       </c>
       <c r="C320" s="2" t="s">
-        <v>1628</v>
+        <v>1627</v>
       </c>
       <c r="D320" s="5"/>
     </row>
@@ -9803,7 +9803,7 @@
         <v>1941</v>
       </c>
       <c r="C321" s="2" t="s">
-        <v>1629</v>
+        <v>1628</v>
       </c>
       <c r="D321" s="5"/>
     </row>
@@ -9815,7 +9815,7 @@
         <v>521</v>
       </c>
       <c r="C322" s="2" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="D322" s="5"/>
     </row>
@@ -9827,7 +9827,7 @@
         <v>521</v>
       </c>
       <c r="C323" s="2" t="s">
-        <v>1631</v>
+        <v>1630</v>
       </c>
       <c r="D323" s="5"/>
     </row>
@@ -9851,7 +9851,7 @@
         <v>522</v>
       </c>
       <c r="C325" s="2" t="s">
-        <v>1632</v>
+        <v>1631</v>
       </c>
       <c r="D325" s="5"/>
     </row>
@@ -9875,7 +9875,7 @@
         <v>1941</v>
       </c>
       <c r="C327" s="2" t="s">
-        <v>1633</v>
+        <v>1632</v>
       </c>
       <c r="D327" s="5"/>
     </row>
@@ -9887,7 +9887,7 @@
         <v>521</v>
       </c>
       <c r="C328" s="2" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="D328" s="5"/>
     </row>
@@ -9899,7 +9899,7 @@
         <v>521</v>
       </c>
       <c r="C329" s="2" t="s">
-        <v>1635</v>
+        <v>1634</v>
       </c>
       <c r="D329" s="5"/>
     </row>
@@ -9911,7 +9911,7 @@
         <v>522</v>
       </c>
       <c r="C330" s="2" t="s">
-        <v>1636</v>
+        <v>1635</v>
       </c>
       <c r="D330" s="5"/>
     </row>
@@ -9923,7 +9923,7 @@
         <v>1046</v>
       </c>
       <c r="C331" s="2" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
       <c r="D331" s="5"/>
     </row>
@@ -9935,17 +9935,17 @@
         <v>522</v>
       </c>
       <c r="C332" s="2" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
       <c r="D332" s="5"/>
     </row>
     <row r="333" spans="1:4" ht="12" x14ac:dyDescent="0.2">
       <c r="A333" s="2" t="s">
-        <v>1639</v>
+        <v>1638</v>
       </c>
       <c r="B333" s="2"/>
       <c r="C333" s="2" t="s">
-        <v>1640</v>
+        <v>1639</v>
       </c>
       <c r="D333" s="5"/>
     </row>
@@ -9955,7 +9955,7 @@
       </c>
       <c r="B334" s="2"/>
       <c r="C334" s="2" t="s">
-        <v>1641</v>
+        <v>1640</v>
       </c>
       <c r="D334" s="5"/>
     </row>
@@ -9965,7 +9965,7 @@
       </c>
       <c r="B335" s="2"/>
       <c r="C335" s="2" t="s">
-        <v>1642</v>
+        <v>1641</v>
       </c>
       <c r="D335" s="5"/>
     </row>
@@ -9975,7 +9975,7 @@
       </c>
       <c r="B336" s="2"/>
       <c r="C336" s="2" t="s">
-        <v>1643</v>
+        <v>1642</v>
       </c>
       <c r="D336" s="5"/>
     </row>
@@ -9985,7 +9985,7 @@
       </c>
       <c r="B337" s="2"/>
       <c r="C337" s="2" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
       <c r="D337" s="5"/>
     </row>
@@ -9995,7 +9995,7 @@
       </c>
       <c r="B338" s="2"/>
       <c r="C338" s="2" t="s">
-        <v>1645</v>
+        <v>1644</v>
       </c>
       <c r="D338" s="5"/>
     </row>
@@ -10005,7 +10005,7 @@
       </c>
       <c r="B339" s="2"/>
       <c r="C339" s="2" t="s">
-        <v>1646</v>
+        <v>1645</v>
       </c>
       <c r="D339" s="5"/>
     </row>
@@ -10015,7 +10015,7 @@
       </c>
       <c r="B340" s="2"/>
       <c r="C340" s="2" t="s">
-        <v>1647</v>
+        <v>1646</v>
       </c>
       <c r="D340" s="5"/>
     </row>
@@ -10025,7 +10025,7 @@
       </c>
       <c r="B341" s="2"/>
       <c r="C341" s="2" t="s">
-        <v>1648</v>
+        <v>1647</v>
       </c>
       <c r="D341" s="5"/>
     </row>
@@ -10035,7 +10035,7 @@
       </c>
       <c r="B342" s="2"/>
       <c r="C342" s="2" t="s">
-        <v>1649</v>
+        <v>1648</v>
       </c>
       <c r="D342" s="5"/>
     </row>
@@ -10045,27 +10045,27 @@
       </c>
       <c r="B343" s="2"/>
       <c r="C343" s="2" t="s">
-        <v>1650</v>
+        <v>1649</v>
       </c>
       <c r="D343" s="5"/>
     </row>
     <row r="344" spans="1:4" ht="12" x14ac:dyDescent="0.2">
       <c r="A344" s="2" t="s">
-        <v>1651</v>
+        <v>1650</v>
       </c>
       <c r="B344" s="2"/>
       <c r="C344" s="2" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="D344" s="5"/>
     </row>
     <row r="345" spans="1:4" ht="12" x14ac:dyDescent="0.2">
       <c r="A345" s="2" t="s">
-        <v>1653</v>
+        <v>1652</v>
       </c>
       <c r="B345" s="2"/>
       <c r="C345" s="2" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="D345" s="5"/>
     </row>
@@ -10075,7 +10075,7 @@
       </c>
       <c r="B346" s="2"/>
       <c r="C346" s="2" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
       <c r="D346" s="5"/>
     </row>
@@ -10085,13 +10085,13 @@
       </c>
       <c r="B347" s="2"/>
       <c r="C347" s="2" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
       <c r="D347" s="5"/>
     </row>
     <row r="348" spans="1:4" ht="12" x14ac:dyDescent="0.2">
       <c r="A348" s="2" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
       <c r="B348" s="2"/>
       <c r="C348" s="2" t="s">
@@ -10778,7 +10778,7 @@
         <v>952</v>
       </c>
       <c r="D416" s="5" t="s">
-        <v>1738</v>
+        <v>1737</v>
       </c>
     </row>
     <row r="417" spans="1:6" ht="12" x14ac:dyDescent="0.2">
@@ -10820,7 +10820,7 @@
         <v>960</v>
       </c>
       <c r="D420" s="5" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
     </row>
     <row r="421" spans="1:6" ht="12" x14ac:dyDescent="0.2">
@@ -10863,7 +10863,7 @@
       </c>
       <c r="D424" s="5"/>
       <c r="F424" s="5" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
     </row>
     <row r="425" spans="1:6" ht="12" x14ac:dyDescent="0.2">
@@ -11009,10 +11009,10 @@
         <v>978</v>
       </c>
       <c r="D436" s="5" t="s">
-        <v>1759</v>
+        <v>1758</v>
       </c>
       <c r="F436" s="5" t="s">
-        <v>1821</v>
+        <v>1820</v>
       </c>
     </row>
     <row r="437" spans="1:6" ht="12" x14ac:dyDescent="0.2">
@@ -11067,7 +11067,7 @@
     </row>
     <row r="442" spans="1:6" ht="12" x14ac:dyDescent="0.2">
       <c r="A442" s="2" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="B442" s="2"/>
       <c r="C442" s="2" t="s">
@@ -11085,7 +11085,7 @@
       </c>
       <c r="D443" s="5"/>
       <c r="F443" s="5" t="s">
-        <v>1679</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="444" spans="1:6" ht="12" x14ac:dyDescent="0.2">
@@ -11096,799 +11096,799 @@
         <v>2100</v>
       </c>
       <c r="C444" s="2" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="D444" s="5"/>
     </row>
     <row r="445" spans="1:6" ht="12" x14ac:dyDescent="0.2">
       <c r="A445" s="2" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
       <c r="B445" s="2">
         <v>2100</v>
       </c>
       <c r="C445" s="2" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
       <c r="D445" s="5"/>
     </row>
     <row r="446" spans="1:6" ht="12" x14ac:dyDescent="0.2">
       <c r="A446" s="2" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="B446" s="2">
         <v>2100</v>
       </c>
       <c r="C446" s="2" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="D446" s="5"/>
     </row>
     <row r="447" spans="1:6" ht="12" x14ac:dyDescent="0.2">
       <c r="A447" s="2" t="s">
+        <v>1479</v>
+      </c>
+      <c r="B447" s="2" t="s">
+        <v>1551</v>
+      </c>
+      <c r="C447" s="2" t="s">
         <v>1480</v>
-      </c>
-      <c r="B447" s="2" t="s">
-        <v>1552</v>
-      </c>
-      <c r="C447" s="2" t="s">
-        <v>1481</v>
       </c>
       <c r="D447" s="5"/>
     </row>
     <row r="448" spans="1:6" ht="12" x14ac:dyDescent="0.2">
       <c r="A448" s="2" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
       <c r="B448" s="2">
         <v>2100</v>
       </c>
       <c r="C448" s="2" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
       <c r="D448" s="5"/>
     </row>
     <row r="449" spans="1:4" ht="12" x14ac:dyDescent="0.2">
       <c r="A449" s="2" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="B449" s="2">
         <v>2100</v>
       </c>
       <c r="C449" s="2" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
       <c r="D449" s="5"/>
     </row>
     <row r="450" spans="1:4" ht="12" x14ac:dyDescent="0.2">
       <c r="A450" s="2" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
       <c r="B450" s="2">
         <v>2100</v>
       </c>
       <c r="C450" s="2" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
       <c r="D450" s="5"/>
     </row>
     <row r="451" spans="1:4" ht="12" x14ac:dyDescent="0.2">
       <c r="A451" s="2" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
       <c r="B451" s="2">
         <v>2100</v>
       </c>
       <c r="C451" s="2" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="D451" s="5"/>
     </row>
     <row r="452" spans="1:4" ht="12" x14ac:dyDescent="0.2">
       <c r="A452" s="2" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="B452" s="2">
         <v>2100</v>
       </c>
       <c r="C452" s="2" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="D452" s="5"/>
     </row>
     <row r="453" spans="1:4" ht="12" x14ac:dyDescent="0.2">
       <c r="A453" s="2" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="B453" s="2">
         <v>2100</v>
       </c>
       <c r="C453" s="2" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="D453" s="5"/>
     </row>
     <row r="454" spans="1:4" ht="12" x14ac:dyDescent="0.2">
       <c r="A454" s="2" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="B454" s="2">
         <v>2100</v>
       </c>
       <c r="C454" s="2" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
       <c r="D454" s="5"/>
     </row>
     <row r="455" spans="1:4" ht="12" x14ac:dyDescent="0.2">
       <c r="A455" s="2" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="B455" s="2">
         <v>2100</v>
       </c>
       <c r="C455" s="2" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
       <c r="D455" s="5"/>
     </row>
     <row r="456" spans="1:4" ht="12" x14ac:dyDescent="0.2">
       <c r="A456" s="2" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="B456" s="2">
         <v>2100</v>
       </c>
       <c r="C456" s="2" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="D456" s="5"/>
     </row>
     <row r="457" spans="1:4" ht="12" x14ac:dyDescent="0.2">
       <c r="A457" s="2" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
       <c r="B457" s="2">
         <v>2100</v>
       </c>
       <c r="C457" s="2" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="D457" s="5"/>
     </row>
     <row r="458" spans="1:4" ht="12" x14ac:dyDescent="0.2">
       <c r="A458" s="2" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="B458" s="2">
         <v>2100</v>
       </c>
       <c r="C458" s="2" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="D458" s="5"/>
     </row>
     <row r="459" spans="1:4" ht="12" x14ac:dyDescent="0.2">
       <c r="A459" s="2" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="B459" s="2">
         <v>2100</v>
       </c>
       <c r="C459" s="2" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="D459" s="5"/>
     </row>
     <row r="460" spans="1:4" ht="12" x14ac:dyDescent="0.2">
       <c r="A460" s="2" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
       <c r="B460" s="2">
         <v>2100</v>
       </c>
       <c r="C460" s="2" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
       <c r="D460" s="5"/>
     </row>
     <row r="461" spans="1:4" ht="12" x14ac:dyDescent="0.2">
       <c r="A461" s="2" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="B461" s="2">
         <v>2100</v>
       </c>
       <c r="C461" s="2" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
       <c r="D461" s="5"/>
     </row>
     <row r="462" spans="1:4" ht="12" x14ac:dyDescent="0.2">
       <c r="A462" s="2" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="B462" s="2">
         <v>2100</v>
       </c>
       <c r="C462" s="2" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="D462" s="5"/>
     </row>
     <row r="463" spans="1:4" ht="12" x14ac:dyDescent="0.2">
       <c r="A463" s="2" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="B463" s="2">
         <v>2100</v>
       </c>
       <c r="C463" s="2" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="D463" s="5"/>
     </row>
     <row r="464" spans="1:4" ht="12" x14ac:dyDescent="0.2">
       <c r="A464" s="2" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="B464" s="2">
         <v>2100</v>
       </c>
       <c r="C464" s="2" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
       <c r="D464" s="5"/>
     </row>
     <row r="465" spans="1:4" ht="12" x14ac:dyDescent="0.2">
       <c r="A465" s="2" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
       <c r="B465" s="2" t="s">
         <v>529</v>
       </c>
       <c r="C465" s="2" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
       <c r="D465" s="5"/>
     </row>
     <row r="466" spans="1:4" ht="12" x14ac:dyDescent="0.2">
       <c r="A466" s="2" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
       <c r="B466" s="2">
         <v>2100</v>
       </c>
       <c r="C466" s="2" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
       <c r="D466" s="5"/>
     </row>
     <row r="467" spans="1:4" ht="12" x14ac:dyDescent="0.2">
       <c r="A467" s="2" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
       <c r="B467" s="2">
         <v>2100</v>
       </c>
       <c r="C467" s="2" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
       <c r="D467" s="5"/>
     </row>
     <row r="468" spans="1:4" ht="12" x14ac:dyDescent="0.2">
       <c r="A468" s="2" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
       <c r="B468" s="2">
         <v>2100</v>
       </c>
       <c r="C468" s="2" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
       <c r="D468" s="5"/>
     </row>
     <row r="469" spans="1:4" ht="12" x14ac:dyDescent="0.2">
       <c r="A469" s="2" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
       <c r="B469" s="2">
         <v>2100</v>
       </c>
       <c r="C469" s="2" t="s">
-        <v>1525</v>
+        <v>1524</v>
       </c>
       <c r="D469" s="5"/>
     </row>
     <row r="470" spans="1:4" ht="12" x14ac:dyDescent="0.2">
       <c r="A470" s="2" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
       <c r="B470" s="2">
         <v>2100</v>
       </c>
       <c r="C470" s="2" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
       <c r="D470" s="5"/>
     </row>
     <row r="471" spans="1:4" ht="12" x14ac:dyDescent="0.2">
       <c r="A471" s="2" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
       <c r="B471" s="2">
         <v>2100</v>
       </c>
       <c r="C471" s="2" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
       <c r="D471" s="5"/>
     </row>
     <row r="472" spans="1:4" ht="12" x14ac:dyDescent="0.2">
       <c r="A472" s="2" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
       <c r="B472" s="2">
         <v>2100</v>
       </c>
       <c r="C472" s="2" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="D472" s="5"/>
     </row>
     <row r="473" spans="1:4" ht="12" x14ac:dyDescent="0.2">
       <c r="A473" s="2" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
       <c r="B473" s="2">
         <v>2100</v>
       </c>
       <c r="C473" s="2" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="D473" s="5"/>
     </row>
     <row r="474" spans="1:4" ht="12" x14ac:dyDescent="0.2">
       <c r="A474" s="2" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
       <c r="B474" s="2">
         <v>2100</v>
       </c>
       <c r="C474" s="2" t="s">
-        <v>1535</v>
+        <v>1534</v>
       </c>
       <c r="D474" s="5"/>
     </row>
     <row r="475" spans="1:4" ht="12" x14ac:dyDescent="0.2">
       <c r="A475" s="2" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
       <c r="B475" s="2">
         <v>2100</v>
       </c>
       <c r="C475" s="2" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
       <c r="D475" s="5"/>
     </row>
     <row r="476" spans="1:4" ht="12" x14ac:dyDescent="0.2">
       <c r="A476" s="2" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
       <c r="B476" s="2" t="s">
         <v>529</v>
       </c>
       <c r="C476" s="2" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
       <c r="D476" s="5"/>
     </row>
     <row r="477" spans="1:4" ht="12" x14ac:dyDescent="0.2">
       <c r="A477" s="2" t="s">
-        <v>1540</v>
+        <v>1539</v>
       </c>
       <c r="B477" s="2">
         <v>2100</v>
       </c>
       <c r="C477" s="2" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
       <c r="D477" s="5"/>
     </row>
     <row r="478" spans="1:4" ht="12" x14ac:dyDescent="0.2">
       <c r="A478" s="2" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
       <c r="B478" s="2">
         <v>2100</v>
       </c>
       <c r="C478" s="2" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
       <c r="D478" s="5"/>
     </row>
     <row r="479" spans="1:4" ht="12" x14ac:dyDescent="0.2">
       <c r="A479" s="2" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
       <c r="B479" s="2">
         <v>2100</v>
       </c>
       <c r="C479" s="2" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D479" s="5"/>
     </row>
     <row r="480" spans="1:4" ht="12" x14ac:dyDescent="0.2">
       <c r="A480" s="2" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="B480" s="2">
         <v>2100</v>
       </c>
       <c r="C480" s="2" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
       <c r="D480" s="5"/>
     </row>
     <row r="481" spans="1:4" ht="12" x14ac:dyDescent="0.2">
       <c r="A481" s="2" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="B481" s="2">
         <v>2100</v>
       </c>
       <c r="C481" s="2" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="D481" s="5"/>
     </row>
     <row r="482" spans="1:4" ht="12" x14ac:dyDescent="0.2">
       <c r="A482" s="2" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="B482" s="2">
         <v>2100</v>
       </c>
       <c r="C482" s="2" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="D482" s="5"/>
     </row>
     <row r="483" spans="1:4" ht="12" x14ac:dyDescent="0.2">
       <c r="A483" s="2" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
       <c r="B483" s="2">
         <v>2100</v>
       </c>
       <c r="C483" s="2" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="D483" s="5"/>
     </row>
     <row r="484" spans="1:4" ht="12" x14ac:dyDescent="0.2">
       <c r="A484" s="2" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
       <c r="B484" s="2">
         <v>2100</v>
       </c>
       <c r="C484" s="2" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="D484" s="5"/>
     </row>
     <row r="485" spans="1:4" ht="12" x14ac:dyDescent="0.2">
       <c r="A485" s="2" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
       <c r="B485" s="2">
         <v>2100</v>
       </c>
       <c r="C485" s="2" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
       <c r="D485" s="5"/>
     </row>
     <row r="486" spans="1:4" ht="12" x14ac:dyDescent="0.2">
       <c r="A486" s="2" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
       <c r="B486" s="2">
         <v>2100</v>
       </c>
       <c r="C486" s="2" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
       <c r="D486" s="5"/>
     </row>
     <row r="487" spans="1:4" ht="12" x14ac:dyDescent="0.2">
       <c r="A487" s="2" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="B487" s="2">
         <v>2100</v>
       </c>
       <c r="C487" s="2" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="D487" s="5"/>
     </row>
     <row r="488" spans="1:4" ht="12" x14ac:dyDescent="0.2">
       <c r="A488" s="2" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
       <c r="B488" s="2">
         <v>2100</v>
       </c>
       <c r="C488" s="2" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
       <c r="D488" s="5"/>
     </row>
     <row r="489" spans="1:4" ht="12" x14ac:dyDescent="0.2">
       <c r="A489" s="2" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
       <c r="B489" s="2">
         <v>2100</v>
       </c>
       <c r="C489" s="2" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
       <c r="D489" s="5"/>
     </row>
     <row r="490" spans="1:4" ht="12" x14ac:dyDescent="0.2">
       <c r="A490" s="2" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
       <c r="B490" s="2">
         <v>2100</v>
       </c>
       <c r="C490" s="2" t="s">
-        <v>1567</v>
+        <v>1566</v>
       </c>
       <c r="D490" s="5"/>
     </row>
     <row r="491" spans="1:4" ht="12" x14ac:dyDescent="0.2">
       <c r="A491" s="2" t="s">
-        <v>1568</v>
+        <v>1567</v>
       </c>
       <c r="B491" s="2">
         <v>2100</v>
       </c>
       <c r="C491" s="2" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="D491" s="5"/>
     </row>
     <row r="492" spans="1:4" ht="12" x14ac:dyDescent="0.2">
       <c r="A492" s="2" t="s">
+        <v>1569</v>
+      </c>
+      <c r="B492" s="2" t="s">
+        <v>1567</v>
+      </c>
+      <c r="C492" s="2" t="s">
         <v>1570</v>
-      </c>
-      <c r="B492" s="2" t="s">
-        <v>1568</v>
-      </c>
-      <c r="C492" s="2" t="s">
-        <v>1571</v>
       </c>
       <c r="D492" s="5"/>
     </row>
     <row r="493" spans="1:4" ht="12" x14ac:dyDescent="0.2">
       <c r="A493" s="2" t="s">
+        <v>1571</v>
+      </c>
+      <c r="B493" s="2" t="s">
+        <v>1567</v>
+      </c>
+      <c r="C493" s="2" t="s">
         <v>1572</v>
-      </c>
-      <c r="B493" s="2" t="s">
-        <v>1568</v>
-      </c>
-      <c r="C493" s="2" t="s">
-        <v>1573</v>
       </c>
       <c r="D493" s="5"/>
     </row>
     <row r="494" spans="1:4" ht="12" x14ac:dyDescent="0.2">
       <c r="A494" s="2" t="s">
+        <v>1573</v>
+      </c>
+      <c r="B494" s="2" t="s">
+        <v>1567</v>
+      </c>
+      <c r="C494" s="2" t="s">
         <v>1574</v>
-      </c>
-      <c r="B494" s="2" t="s">
-        <v>1568</v>
-      </c>
-      <c r="C494" s="2" t="s">
-        <v>1575</v>
       </c>
       <c r="D494" s="5"/>
     </row>
     <row r="495" spans="1:4" ht="12" x14ac:dyDescent="0.2">
       <c r="A495" s="2" t="s">
+        <v>1575</v>
+      </c>
+      <c r="B495" s="2" t="s">
+        <v>1567</v>
+      </c>
+      <c r="C495" s="2" t="s">
         <v>1576</v>
-      </c>
-      <c r="B495" s="2" t="s">
-        <v>1568</v>
-      </c>
-      <c r="C495" s="2" t="s">
-        <v>1577</v>
       </c>
       <c r="D495" s="5"/>
     </row>
     <row r="496" spans="1:4" ht="12" x14ac:dyDescent="0.2">
       <c r="A496" s="2" t="s">
+        <v>1577</v>
+      </c>
+      <c r="B496" s="2" t="s">
+        <v>1567</v>
+      </c>
+      <c r="C496" s="2" t="s">
         <v>1578</v>
-      </c>
-      <c r="B496" s="2" t="s">
-        <v>1568</v>
-      </c>
-      <c r="C496" s="2" t="s">
-        <v>1579</v>
       </c>
       <c r="D496" s="5"/>
     </row>
     <row r="497" spans="1:4" ht="12" x14ac:dyDescent="0.2">
       <c r="A497" s="2" t="s">
+        <v>1579</v>
+      </c>
+      <c r="B497" s="2" t="s">
+        <v>1567</v>
+      </c>
+      <c r="C497" s="2" t="s">
         <v>1580</v>
-      </c>
-      <c r="B497" s="2" t="s">
-        <v>1568</v>
-      </c>
-      <c r="C497" s="2" t="s">
-        <v>1581</v>
       </c>
       <c r="D497" s="5"/>
     </row>
     <row r="498" spans="1:4" ht="12" x14ac:dyDescent="0.2">
       <c r="A498" s="2" t="s">
+        <v>1581</v>
+      </c>
+      <c r="B498" s="2" t="s">
+        <v>1567</v>
+      </c>
+      <c r="C498" s="2" t="s">
         <v>1582</v>
-      </c>
-      <c r="B498" s="2" t="s">
-        <v>1568</v>
-      </c>
-      <c r="C498" s="2" t="s">
-        <v>1583</v>
       </c>
       <c r="D498" s="5"/>
     </row>
     <row r="499" spans="1:4" ht="12" x14ac:dyDescent="0.2">
       <c r="A499" s="2" t="s">
+        <v>1583</v>
+      </c>
+      <c r="B499" s="2" t="s">
+        <v>1567</v>
+      </c>
+      <c r="C499" s="2" t="s">
         <v>1584</v>
-      </c>
-      <c r="B499" s="2" t="s">
-        <v>1568</v>
-      </c>
-      <c r="C499" s="2" t="s">
-        <v>1585</v>
       </c>
       <c r="D499" s="5"/>
     </row>
     <row r="500" spans="1:4" ht="12" x14ac:dyDescent="0.2">
       <c r="A500" s="2" t="s">
+        <v>1585</v>
+      </c>
+      <c r="B500" s="2" t="s">
+        <v>1567</v>
+      </c>
+      <c r="C500" s="2" t="s">
         <v>1586</v>
-      </c>
-      <c r="B500" s="2" t="s">
-        <v>1568</v>
-      </c>
-      <c r="C500" s="2" t="s">
-        <v>1587</v>
       </c>
       <c r="D500" s="5"/>
     </row>
     <row r="501" spans="1:4" ht="12" x14ac:dyDescent="0.2">
       <c r="A501" s="2" t="s">
+        <v>1587</v>
+      </c>
+      <c r="B501" s="2" t="s">
+        <v>1567</v>
+      </c>
+      <c r="C501" s="2" t="s">
         <v>1588</v>
-      </c>
-      <c r="B501" s="2" t="s">
-        <v>1568</v>
-      </c>
-      <c r="C501" s="2" t="s">
-        <v>1589</v>
       </c>
       <c r="D501" s="5"/>
     </row>
     <row r="502" spans="1:4" ht="12" x14ac:dyDescent="0.2">
       <c r="A502" s="2" t="s">
+        <v>1589</v>
+      </c>
+      <c r="B502" s="2" t="s">
+        <v>1567</v>
+      </c>
+      <c r="C502" s="2" t="s">
         <v>1590</v>
-      </c>
-      <c r="B502" s="2" t="s">
-        <v>1568</v>
-      </c>
-      <c r="C502" s="2" t="s">
-        <v>1591</v>
       </c>
       <c r="D502" s="5"/>
     </row>
     <row r="503" spans="1:4" ht="12" x14ac:dyDescent="0.2">
       <c r="A503" s="2" t="s">
+        <v>1591</v>
+      </c>
+      <c r="B503" s="2" t="s">
+        <v>1567</v>
+      </c>
+      <c r="C503" s="2" t="s">
         <v>1592</v>
-      </c>
-      <c r="B503" s="2" t="s">
-        <v>1568</v>
-      </c>
-      <c r="C503" s="2" t="s">
-        <v>1593</v>
       </c>
       <c r="D503" s="5"/>
     </row>
     <row r="504" spans="1:4" ht="12" x14ac:dyDescent="0.2">
       <c r="A504" s="2" t="s">
+        <v>1593</v>
+      </c>
+      <c r="B504" s="2" t="s">
+        <v>1567</v>
+      </c>
+      <c r="C504" s="2" t="s">
         <v>1594</v>
-      </c>
-      <c r="B504" s="2" t="s">
-        <v>1568</v>
-      </c>
-      <c r="C504" s="2" t="s">
-        <v>1595</v>
       </c>
       <c r="D504" s="5"/>
     </row>
     <row r="505" spans="1:4" ht="12" x14ac:dyDescent="0.2">
       <c r="A505" s="2" t="s">
+        <v>1595</v>
+      </c>
+      <c r="B505" s="2" t="s">
+        <v>1567</v>
+      </c>
+      <c r="C505" s="2" t="s">
         <v>1596</v>
-      </c>
-      <c r="B505" s="2" t="s">
-        <v>1568</v>
-      </c>
-      <c r="C505" s="2" t="s">
-        <v>1597</v>
       </c>
       <c r="D505" s="5"/>
     </row>
     <row r="506" spans="1:4" ht="12" x14ac:dyDescent="0.2">
       <c r="A506" s="2" t="s">
+        <v>1597</v>
+      </c>
+      <c r="B506" s="2" t="s">
+        <v>1567</v>
+      </c>
+      <c r="C506" s="2" t="s">
         <v>1598</v>
-      </c>
-      <c r="B506" s="2" t="s">
-        <v>1568</v>
-      </c>
-      <c r="C506" s="2" t="s">
-        <v>1599</v>
       </c>
       <c r="D506" s="5"/>
     </row>
     <row r="507" spans="1:4" ht="12" x14ac:dyDescent="0.2">
       <c r="A507" s="2" t="s">
+        <v>1599</v>
+      </c>
+      <c r="B507" s="2" t="s">
+        <v>1567</v>
+      </c>
+      <c r="C507" s="2" t="s">
         <v>1600</v>
-      </c>
-      <c r="B507" s="2" t="s">
-        <v>1568</v>
-      </c>
-      <c r="C507" s="2" t="s">
-        <v>1601</v>
       </c>
       <c r="D507" s="5"/>
     </row>
     <row r="508" spans="1:4" ht="12" x14ac:dyDescent="0.2">
       <c r="A508" s="2" t="s">
+        <v>1601</v>
+      </c>
+      <c r="B508" s="2" t="s">
+        <v>1567</v>
+      </c>
+      <c r="C508" s="2" t="s">
         <v>1602</v>
-      </c>
-      <c r="B508" s="2" t="s">
-        <v>1568</v>
-      </c>
-      <c r="C508" s="2" t="s">
-        <v>1603</v>
       </c>
       <c r="D508" s="5"/>
     </row>
     <row r="509" spans="1:4" ht="12" x14ac:dyDescent="0.2">
       <c r="A509" s="2" t="s">
+        <v>1603</v>
+      </c>
+      <c r="B509" s="2" t="s">
+        <v>1567</v>
+      </c>
+      <c r="C509" s="2" t="s">
         <v>1604</v>
-      </c>
-      <c r="B509" s="2" t="s">
-        <v>1568</v>
-      </c>
-      <c r="C509" s="2" t="s">
-        <v>1605</v>
       </c>
       <c r="D509" s="5"/>
     </row>
     <row r="510" spans="1:4" ht="12" x14ac:dyDescent="0.2">
       <c r="A510" s="2" t="s">
+        <v>1605</v>
+      </c>
+      <c r="B510" s="2" t="s">
+        <v>1567</v>
+      </c>
+      <c r="C510" s="2" t="s">
         <v>1606</v>
-      </c>
-      <c r="B510" s="2" t="s">
-        <v>1568</v>
-      </c>
-      <c r="C510" s="2" t="s">
-        <v>1607</v>
       </c>
       <c r="D510" s="5"/>
     </row>
@@ -11898,7 +11898,7 @@
       </c>
       <c r="B511" s="2"/>
       <c r="C511" s="2" t="s">
-        <v>1608</v>
+        <v>1607</v>
       </c>
       <c r="D511" s="5"/>
     </row>
@@ -11908,7 +11908,7 @@
       </c>
       <c r="B512" s="2"/>
       <c r="C512" s="2" t="s">
-        <v>1609</v>
+        <v>1608</v>
       </c>
       <c r="D512" s="5"/>
     </row>
@@ -11921,10 +11921,10 @@
         <v>690</v>
       </c>
       <c r="D513" s="5" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
       <c r="F513" s="5" t="s">
-        <v>1767</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="514" spans="1:6" ht="12" x14ac:dyDescent="0.2">
@@ -11933,7 +11933,7 @@
       </c>
       <c r="B514" s="2"/>
       <c r="C514" s="2" t="s">
-        <v>1610</v>
+        <v>1609</v>
       </c>
       <c r="D514" s="5"/>
     </row>
@@ -11943,73 +11943,73 @@
       </c>
       <c r="B515" s="2"/>
       <c r="C515" s="2" t="s">
-        <v>1611</v>
+        <v>1610</v>
       </c>
       <c r="D515" s="5"/>
     </row>
     <row r="516" spans="1:6" ht="12" x14ac:dyDescent="0.2">
       <c r="A516" s="2" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="B516" s="2" t="s">
         <v>746</v>
       </c>
       <c r="C516" s="2" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="D516" s="5"/>
     </row>
     <row r="517" spans="1:6" ht="12" x14ac:dyDescent="0.2">
       <c r="A517" s="2" t="s">
-        <v>1614</v>
+        <v>1613</v>
       </c>
       <c r="B517" s="2">
         <v>2400</v>
       </c>
       <c r="C517" s="2" t="s">
-        <v>1615</v>
+        <v>1614</v>
       </c>
       <c r="D517" s="5"/>
     </row>
     <row r="518" spans="1:6" ht="12" x14ac:dyDescent="0.2">
       <c r="A518" s="2" t="s">
-        <v>1616</v>
+        <v>1615</v>
       </c>
       <c r="B518" s="2">
         <v>2400</v>
       </c>
       <c r="C518" s="2" t="s">
-        <v>1617</v>
+        <v>1616</v>
       </c>
       <c r="D518" s="5"/>
     </row>
     <row r="519" spans="1:6" ht="12" x14ac:dyDescent="0.2">
       <c r="A519" s="2" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
       <c r="B519" s="2">
         <v>2400</v>
       </c>
       <c r="C519" s="2" t="s">
-        <v>1619</v>
+        <v>1618</v>
       </c>
       <c r="D519" s="5"/>
     </row>
     <row r="520" spans="1:6" ht="12" x14ac:dyDescent="0.2">
       <c r="A520" s="2" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
       <c r="B520" s="2">
         <v>2400</v>
       </c>
       <c r="C520" s="2" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="D520" s="5"/>
     </row>
     <row r="521" spans="1:6" ht="12" x14ac:dyDescent="0.2">
       <c r="A521" s="2" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
       <c r="B521" s="2">
         <v>2400</v>
@@ -12312,7 +12312,7 @@
         <v>1118</v>
       </c>
       <c r="D546" s="5" t="s">
-        <v>1736</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="547" spans="1:6" ht="12" x14ac:dyDescent="0.2">
@@ -12324,10 +12324,10 @@
         <v>691</v>
       </c>
       <c r="D547" s="5" t="s">
-        <v>1681</v>
+        <v>1680</v>
       </c>
       <c r="F547" s="5" t="s">
-        <v>1774</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="548" spans="1:6" ht="12" x14ac:dyDescent="0.2">
@@ -12483,7 +12483,7 @@
         <v>1127</v>
       </c>
       <c r="D560" s="5" t="s">
-        <v>1737</v>
+        <v>1736</v>
       </c>
     </row>
     <row r="561" spans="1:6" ht="12" x14ac:dyDescent="0.2">
@@ -12555,10 +12555,10 @@
         <v>693</v>
       </c>
       <c r="D567" s="5" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
       <c r="E567" s="5" t="s">
-        <v>1775</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="568" spans="1:6" ht="12" x14ac:dyDescent="0.2">
@@ -12570,10 +12570,10 @@
         <v>694</v>
       </c>
       <c r="D568" s="5" t="s">
+        <v>1681</v>
+      </c>
+      <c r="F568" s="5" t="s">
         <v>1682</v>
-      </c>
-      <c r="F568" s="5" t="s">
-        <v>1683</v>
       </c>
     </row>
     <row r="569" spans="1:6" ht="12" x14ac:dyDescent="0.2">
@@ -12888,7 +12888,7 @@
       </c>
       <c r="D594" s="5"/>
       <c r="E594" s="5" t="s">
-        <v>1773</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="595" spans="1:5" ht="12" x14ac:dyDescent="0.2">
@@ -13200,7 +13200,7 @@
         <v>69</v>
       </c>
       <c r="D621" s="5" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="622" spans="1:6" ht="12" x14ac:dyDescent="0.2">
@@ -13212,10 +13212,10 @@
         <v>699</v>
       </c>
       <c r="D622" s="5" t="s">
+        <v>1683</v>
+      </c>
+      <c r="F622" s="5" t="s">
         <v>1684</v>
-      </c>
-      <c r="F622" s="5" t="s">
-        <v>1685</v>
       </c>
     </row>
     <row r="623" spans="1:6" ht="12" x14ac:dyDescent="0.2">
@@ -13250,7 +13250,7 @@
         <v>4700</v>
       </c>
       <c r="C625" s="2" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="D625" s="5"/>
     </row>
@@ -13512,7 +13512,7 @@
       </c>
       <c r="D648" s="5"/>
       <c r="E648" s="5" t="s">
-        <v>1776</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="649" spans="1:6" ht="12" x14ac:dyDescent="0.2">
@@ -13524,10 +13524,10 @@
         <v>703</v>
       </c>
       <c r="D649" s="5" t="s">
+        <v>1685</v>
+      </c>
+      <c r="F649" s="5" t="s">
         <v>1686</v>
-      </c>
-      <c r="F649" s="5" t="s">
-        <v>1687</v>
       </c>
     </row>
     <row r="650" spans="1:6" ht="12" x14ac:dyDescent="0.2">
@@ -13779,7 +13779,7 @@
         <v>433</v>
       </c>
       <c r="D674" s="5" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="675" spans="1:6" ht="12" x14ac:dyDescent="0.2">
@@ -13801,7 +13801,7 @@
         <v>435</v>
       </c>
       <c r="D676" s="5" t="s">
-        <v>1757</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="677" spans="1:6" ht="12" x14ac:dyDescent="0.2">
@@ -13823,7 +13823,7 @@
         <v>437</v>
       </c>
       <c r="D678" s="5" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
     </row>
     <row r="679" spans="1:6" ht="12" x14ac:dyDescent="0.2">
@@ -13836,7 +13836,7 @@
       </c>
       <c r="D679" s="5"/>
       <c r="F679" s="5" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="680" spans="1:6" ht="12" x14ac:dyDescent="0.2">
@@ -14783,7 +14783,7 @@
         <v>5700</v>
       </c>
       <c r="C758" s="2" t="s">
-        <v>1733</v>
+        <v>1732</v>
       </c>
       <c r="D758" s="5"/>
     </row>
@@ -14805,7 +14805,7 @@
         <v>5900</v>
       </c>
       <c r="C760" s="2" t="s">
-        <v>1721</v>
+        <v>1720</v>
       </c>
       <c r="D760" s="5"/>
     </row>
@@ -14817,7 +14817,7 @@
         <v>5900</v>
       </c>
       <c r="C761" s="2" t="s">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="D761" s="5"/>
     </row>
@@ -14829,7 +14829,7 @@
         <v>5900</v>
       </c>
       <c r="C762" s="2" t="s">
-        <v>1723</v>
+        <v>1722</v>
       </c>
       <c r="D762" s="5"/>
     </row>
@@ -14841,7 +14841,7 @@
         <v>5900</v>
       </c>
       <c r="C763" s="2" t="s">
-        <v>1724</v>
+        <v>1723</v>
       </c>
       <c r="D763" s="5"/>
     </row>
@@ -14851,7 +14851,7 @@
       </c>
       <c r="B764" s="2"/>
       <c r="C764" s="2" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
       <c r="D764" s="5"/>
     </row>
@@ -14861,7 +14861,7 @@
       </c>
       <c r="B765" s="2"/>
       <c r="C765" s="2" t="s">
-        <v>1726</v>
+        <v>1725</v>
       </c>
       <c r="D765" s="5"/>
     </row>
@@ -14871,7 +14871,7 @@
       </c>
       <c r="B766" s="2"/>
       <c r="C766" s="2" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="D766" s="5"/>
     </row>
@@ -14881,7 +14881,7 @@
       </c>
       <c r="B767" s="2"/>
       <c r="C767" s="2" t="s">
-        <v>1728</v>
+        <v>1727</v>
       </c>
       <c r="D767" s="5"/>
     </row>
@@ -14891,7 +14891,7 @@
       </c>
       <c r="B768" s="2"/>
       <c r="C768" s="2" t="s">
-        <v>1729</v>
+        <v>1728</v>
       </c>
       <c r="D768" s="5"/>
     </row>
@@ -14901,7 +14901,7 @@
       </c>
       <c r="B769" s="2"/>
       <c r="C769" s="2" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
       <c r="D769" s="5"/>
     </row>
@@ -14911,7 +14911,7 @@
       </c>
       <c r="B770" s="2"/>
       <c r="C770" s="2" t="s">
-        <v>1731</v>
+        <v>1730</v>
       </c>
       <c r="D770" s="5"/>
     </row>
@@ -14921,7 +14921,7 @@
       </c>
       <c r="B771" s="2"/>
       <c r="C771" s="2" t="s">
-        <v>1732</v>
+        <v>1731</v>
       </c>
       <c r="D771" s="5"/>
     </row>
@@ -14934,10 +14934,10 @@
         <v>706</v>
       </c>
       <c r="D772" s="5" t="s">
+        <v>1688</v>
+      </c>
+      <c r="F772" s="5" t="s">
         <v>1689</v>
-      </c>
-      <c r="F772" s="5" t="s">
-        <v>1690</v>
       </c>
     </row>
     <row r="773" spans="1:6" ht="12" x14ac:dyDescent="0.2">
@@ -14945,7 +14945,7 @@
         <v>6801</v>
       </c>
       <c r="B773" s="2" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="C773" s="2" t="s">
         <v>286</v>
@@ -14957,7 +14957,7 @@
         <v>6802</v>
       </c>
       <c r="B774" s="2" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="C774" s="2" t="s">
         <v>287</v>
@@ -15008,19 +15008,19 @@
         <v>6800</v>
       </c>
       <c r="C778" s="2" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="D778" s="5"/>
     </row>
     <row r="779" spans="1:6" ht="12" x14ac:dyDescent="0.2">
       <c r="A779" s="2" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="B779" s="2">
         <v>6800</v>
       </c>
       <c r="C779" s="2" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="D779" s="5"/>
     </row>
@@ -15032,7 +15032,7 @@
         <v>6800</v>
       </c>
       <c r="C780" s="2" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="D780" s="5"/>
     </row>
@@ -15044,7 +15044,7 @@
         <v>6800</v>
       </c>
       <c r="C781" s="2" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="D781" s="5"/>
     </row>
@@ -15056,7 +15056,7 @@
         <v>6800</v>
       </c>
       <c r="C782" s="2" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="D782" s="5"/>
     </row>
@@ -15068,7 +15068,7 @@
         <v>6800</v>
       </c>
       <c r="C783" s="2" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="D783" s="5"/>
     </row>
@@ -15080,7 +15080,7 @@
         <v>6800</v>
       </c>
       <c r="C784" s="2" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="D784" s="5"/>
     </row>
@@ -15092,7 +15092,7 @@
         <v>6800</v>
       </c>
       <c r="C785" s="2" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="D785" s="5"/>
     </row>
@@ -15116,40 +15116,40 @@
         <v>6800</v>
       </c>
       <c r="C787" s="2" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="D787" s="5"/>
     </row>
     <row r="788" spans="1:4" ht="12" x14ac:dyDescent="0.2">
       <c r="A788" s="2" t="s">
+        <v>1353</v>
+      </c>
+      <c r="B788" s="2" t="s">
+        <v>1344</v>
+      </c>
+      <c r="C788" s="2" t="s">
         <v>1354</v>
-      </c>
-      <c r="B788" s="2" t="s">
-        <v>1345</v>
-      </c>
-      <c r="C788" s="2" t="s">
-        <v>1355</v>
       </c>
       <c r="D788" s="5"/>
     </row>
     <row r="789" spans="1:4" ht="12" x14ac:dyDescent="0.2">
       <c r="A789" s="2" t="s">
+        <v>1355</v>
+      </c>
+      <c r="B789" s="2" t="s">
+        <v>1344</v>
+      </c>
+      <c r="C789" s="2" t="s">
         <v>1356</v>
-      </c>
-      <c r="B789" s="2" t="s">
-        <v>1345</v>
-      </c>
-      <c r="C789" s="2" t="s">
-        <v>1357</v>
       </c>
       <c r="D789" s="5"/>
     </row>
     <row r="790" spans="1:4" ht="12" x14ac:dyDescent="0.2">
       <c r="A790" s="2" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="B790" s="2" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="C790" s="2" t="s">
         <v>801</v>
@@ -15158,22 +15158,22 @@
     </row>
     <row r="791" spans="1:4" ht="12" x14ac:dyDescent="0.2">
       <c r="A791" s="2" t="s">
+        <v>1358</v>
+      </c>
+      <c r="B791" s="2" t="s">
+        <v>1344</v>
+      </c>
+      <c r="C791" s="2" t="s">
         <v>1359</v>
-      </c>
-      <c r="B791" s="2" t="s">
-        <v>1345</v>
-      </c>
-      <c r="C791" s="2" t="s">
-        <v>1360</v>
       </c>
       <c r="D791" s="5"/>
     </row>
     <row r="792" spans="1:4" ht="12" x14ac:dyDescent="0.2">
       <c r="A792" s="2" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="B792" s="2" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="C792" s="2" t="s">
         <v>992</v>
@@ -15182,22 +15182,22 @@
     </row>
     <row r="793" spans="1:4" ht="12" x14ac:dyDescent="0.2">
       <c r="A793" s="2" t="s">
+        <v>1361</v>
+      </c>
+      <c r="B793" s="2" t="s">
+        <v>1344</v>
+      </c>
+      <c r="C793" s="2" t="s">
         <v>1362</v>
-      </c>
-      <c r="B793" s="2" t="s">
-        <v>1345</v>
-      </c>
-      <c r="C793" s="2" t="s">
-        <v>1363</v>
       </c>
       <c r="D793" s="5"/>
     </row>
     <row r="794" spans="1:4" ht="12" x14ac:dyDescent="0.2">
       <c r="A794" s="2" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="B794" s="2" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="C794" s="2" t="s">
         <v>987</v>
@@ -15206,10 +15206,10 @@
     </row>
     <row r="795" spans="1:4" ht="12" x14ac:dyDescent="0.2">
       <c r="A795" s="2" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="B795" s="2" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="C795" s="2" t="s">
         <v>317</v>
@@ -15218,22 +15218,22 @@
     </row>
     <row r="796" spans="1:4" ht="12" x14ac:dyDescent="0.2">
       <c r="A796" s="2" t="s">
+        <v>1365</v>
+      </c>
+      <c r="B796" s="2" t="s">
+        <v>1344</v>
+      </c>
+      <c r="C796" s="2" t="s">
         <v>1366</v>
-      </c>
-      <c r="B796" s="2" t="s">
-        <v>1345</v>
-      </c>
-      <c r="C796" s="2" t="s">
-        <v>1367</v>
       </c>
       <c r="D796" s="5"/>
     </row>
     <row r="797" spans="1:4" ht="12" x14ac:dyDescent="0.2">
       <c r="A797" s="2" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="B797" s="2" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="C797" s="2" t="s">
         <v>1229</v>
@@ -15242,25 +15242,25 @@
     </row>
     <row r="798" spans="1:4" ht="12" x14ac:dyDescent="0.2">
       <c r="A798" s="2" t="s">
+        <v>1368</v>
+      </c>
+      <c r="B798" s="2" t="s">
+        <v>1344</v>
+      </c>
+      <c r="C798" s="2" t="s">
         <v>1369</v>
-      </c>
-      <c r="B798" s="2" t="s">
-        <v>1345</v>
-      </c>
-      <c r="C798" s="2" t="s">
-        <v>1370</v>
       </c>
       <c r="D798" s="5"/>
     </row>
     <row r="799" spans="1:4" ht="12" x14ac:dyDescent="0.2">
       <c r="A799" s="2" t="s">
+        <v>1370</v>
+      </c>
+      <c r="B799" s="2" t="s">
+        <v>1344</v>
+      </c>
+      <c r="C799" s="2" t="s">
         <v>1371</v>
-      </c>
-      <c r="B799" s="2" t="s">
-        <v>1345</v>
-      </c>
-      <c r="C799" s="2" t="s">
-        <v>1372</v>
       </c>
       <c r="D799" s="5"/>
     </row>
@@ -15269,7 +15269,7 @@
         <v>707</v>
       </c>
       <c r="B800" s="2" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="C800" s="2" t="s">
         <v>708</v>
@@ -15281,7 +15281,7 @@
         <v>709</v>
       </c>
       <c r="B801" s="2" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="C801" s="2" t="s">
         <v>710</v>
@@ -15297,10 +15297,10 @@
         <v>711</v>
       </c>
       <c r="D802" s="5" t="s">
+        <v>1690</v>
+      </c>
+      <c r="F802" s="5" t="s">
         <v>1691</v>
-      </c>
-      <c r="F802" s="5" t="s">
-        <v>1692</v>
       </c>
     </row>
     <row r="803" spans="1:6" ht="12" x14ac:dyDescent="0.2">
@@ -15308,10 +15308,10 @@
         <v>6901</v>
       </c>
       <c r="B803" s="2" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="C803" s="2" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="D803" s="5"/>
     </row>
@@ -15320,10 +15320,10 @@
         <v>6902</v>
       </c>
       <c r="B804" s="2" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="C804" s="2" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="D804" s="5"/>
     </row>
@@ -15332,7 +15332,7 @@
         <v>6903</v>
       </c>
       <c r="B805" s="2" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="C805" s="2" t="s">
         <v>71</v>
@@ -15347,7 +15347,7 @@
         <v>712</v>
       </c>
       <c r="C806" s="2" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="D806" s="5"/>
     </row>
@@ -15356,7 +15356,7 @@
         <v>6905</v>
       </c>
       <c r="B807" s="2" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="C807" s="2" t="s">
         <v>308</v>
@@ -15368,10 +15368,10 @@
         <v>6906</v>
       </c>
       <c r="B808" s="2" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="C808" s="2" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="D808" s="5"/>
     </row>
@@ -15380,10 +15380,10 @@
         <v>6907</v>
       </c>
       <c r="B809" s="2" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="C809" s="2" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="D809" s="5"/>
     </row>
@@ -15392,10 +15392,10 @@
         <v>6908</v>
       </c>
       <c r="B810" s="2" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="C810" s="2" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="D810" s="5"/>
     </row>
@@ -15404,10 +15404,10 @@
         <v>6909</v>
       </c>
       <c r="B811" s="2" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="C811" s="2" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="D811" s="5"/>
     </row>
@@ -15416,7 +15416,7 @@
         <v>6910</v>
       </c>
       <c r="B812" s="2" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="C812" s="2" t="s">
         <v>305</v>
@@ -15425,13 +15425,13 @@
     </row>
     <row r="813" spans="1:6" ht="12" x14ac:dyDescent="0.2">
       <c r="A813" s="2" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="B813" s="2">
         <v>6900</v>
       </c>
       <c r="C813" s="2" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="D813" s="5"/>
     </row>
@@ -15440,7 +15440,7 @@
         <v>6911</v>
       </c>
       <c r="B814" s="2" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="C814" s="2" t="s">
         <v>317</v>
@@ -15452,7 +15452,7 @@
         <v>6912</v>
       </c>
       <c r="B815" s="2" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="C815" s="2" t="s">
         <v>30</v>
@@ -15467,7 +15467,7 @@
         <v>712</v>
       </c>
       <c r="C816" s="2" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="D816" s="5"/>
     </row>
@@ -15476,7 +15476,7 @@
         <v>6914</v>
       </c>
       <c r="B817" s="2" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="C817" s="2" t="s">
         <v>992</v>
@@ -15488,10 +15488,10 @@
         <v>6915</v>
       </c>
       <c r="B818" s="2" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="C818" s="2" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="D818" s="5"/>
     </row>
@@ -15500,10 +15500,10 @@
         <v>6916</v>
       </c>
       <c r="B819" s="2" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="C819" s="2" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="D819" s="5"/>
     </row>
@@ -15512,10 +15512,10 @@
         <v>6917</v>
       </c>
       <c r="B820" s="2" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="C820" s="2" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="D820" s="5"/>
     </row>
@@ -15524,10 +15524,10 @@
         <v>6918</v>
       </c>
       <c r="B821" s="2" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="C821" s="2" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="D821" s="5"/>
     </row>
@@ -15539,13 +15539,13 @@
         <v>712</v>
       </c>
       <c r="C822" s="2" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="D822" s="5" t="s">
-        <v>1758</v>
+        <v>1757</v>
       </c>
       <c r="F822" s="5" t="s">
-        <v>1812</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="823" spans="1:6" ht="12" x14ac:dyDescent="0.2">
@@ -15553,10 +15553,10 @@
         <v>6922</v>
       </c>
       <c r="B823" s="2" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="C823" s="2" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="D823" s="5"/>
     </row>
@@ -15568,11 +15568,11 @@
         <v>712</v>
       </c>
       <c r="C824" s="2" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="D824" s="5"/>
       <c r="F824" s="5" t="s">
-        <v>1809</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="825" spans="1:6" ht="12" x14ac:dyDescent="0.2">
@@ -15583,11 +15583,11 @@
         <v>712</v>
       </c>
       <c r="C825" s="2" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D825" s="5"/>
       <c r="F825" s="5" t="s">
-        <v>1810</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="826" spans="1:6" ht="12" x14ac:dyDescent="0.2">
@@ -15598,7 +15598,7 @@
         <v>712</v>
       </c>
       <c r="C826" s="2" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
       <c r="D826" s="5"/>
     </row>
@@ -15610,10 +15610,10 @@
         <v>712</v>
       </c>
       <c r="C827" s="2" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="D827" s="5" t="s">
-        <v>1762</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="828" spans="1:6" ht="12" x14ac:dyDescent="0.2">
@@ -15624,7 +15624,7 @@
         <v>712</v>
       </c>
       <c r="C828" s="2" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="D828" s="5"/>
     </row>
@@ -15636,7 +15636,7 @@
         <v>712</v>
       </c>
       <c r="C829" s="2" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="D829" s="5"/>
     </row>
@@ -15648,7 +15648,7 @@
         <v>712</v>
       </c>
       <c r="C830" s="2" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="D830" s="5"/>
     </row>
@@ -15660,11 +15660,11 @@
         <v>712</v>
       </c>
       <c r="C831" s="2" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="D831" s="5"/>
       <c r="F831" s="5" t="s">
-        <v>1820</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="832" spans="1:6" ht="12" x14ac:dyDescent="0.2">
@@ -15675,7 +15675,7 @@
         <v>712</v>
       </c>
       <c r="C832" s="2" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="D832" s="5"/>
     </row>
@@ -15685,7 +15685,7 @@
       </c>
       <c r="B833" s="2"/>
       <c r="C833" s="2" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="D833" s="5"/>
     </row>
@@ -15695,7 +15695,7 @@
       </c>
       <c r="B834" s="2"/>
       <c r="C834" s="2" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="D834" s="5"/>
     </row>
@@ -15708,10 +15708,10 @@
         <v>713</v>
       </c>
       <c r="D835" s="5" t="s">
+        <v>1692</v>
+      </c>
+      <c r="F835" s="5" t="s">
         <v>1693</v>
-      </c>
-      <c r="F835" s="5" t="s">
-        <v>1694</v>
       </c>
     </row>
     <row r="836" spans="1:6" ht="12" x14ac:dyDescent="0.2">
@@ -15722,7 +15722,7 @@
         <v>7000</v>
       </c>
       <c r="C836" s="2" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="D836" s="5"/>
     </row>
@@ -15734,7 +15734,7 @@
         <v>7001</v>
       </c>
       <c r="C837" s="2" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="D837" s="5"/>
     </row>
@@ -15746,13 +15746,13 @@
         <v>7001</v>
       </c>
       <c r="C838" s="4" t="s">
-        <v>1792</v>
+        <v>1791</v>
       </c>
       <c r="D838" s="5" t="s">
-        <v>1791</v>
+        <v>1790</v>
       </c>
       <c r="E838" s="2" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="839" spans="1:6" ht="12" x14ac:dyDescent="0.2">
@@ -15775,13 +15775,13 @@
         <v>7001</v>
       </c>
       <c r="C840" s="2" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="D840" s="5" t="s">
-        <v>1705</v>
+        <v>1704</v>
       </c>
       <c r="E840" s="5" t="s">
-        <v>1780</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="841" spans="1:6" ht="12" x14ac:dyDescent="0.2">
@@ -15792,16 +15792,16 @@
         <v>7001</v>
       </c>
       <c r="C841" s="2" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="D841" s="5" t="s">
+        <v>1813</v>
+      </c>
+      <c r="E841" s="5" t="s">
+        <v>1780</v>
+      </c>
+      <c r="F841" s="5" t="s">
         <v>1814</v>
-      </c>
-      <c r="E841" s="5" t="s">
-        <v>1781</v>
-      </c>
-      <c r="F841" s="5" t="s">
-        <v>1815</v>
       </c>
     </row>
     <row r="842" spans="1:6" ht="12" x14ac:dyDescent="0.2">
@@ -15815,13 +15815,13 @@
         <v>714</v>
       </c>
       <c r="D842" s="5" t="s">
-        <v>1704</v>
+        <v>1703</v>
       </c>
       <c r="E842" s="5" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
       <c r="F842" s="5" t="s">
-        <v>1816</v>
+        <v>1815</v>
       </c>
     </row>
     <row r="843" spans="1:6" ht="12" x14ac:dyDescent="0.2">
@@ -15832,13 +15832,13 @@
         <v>7001</v>
       </c>
       <c r="C843" s="2" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="D843" s="5" t="s">
-        <v>1706</v>
+        <v>1705</v>
       </c>
       <c r="F843" s="5" t="s">
-        <v>1813</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="844" spans="1:6" ht="12" x14ac:dyDescent="0.2">
@@ -15852,13 +15852,13 @@
         <v>716</v>
       </c>
       <c r="D844" s="5" t="s">
-        <v>1707</v>
+        <v>1706</v>
       </c>
       <c r="E844" s="5" t="s">
-        <v>1783</v>
+        <v>1782</v>
       </c>
       <c r="F844" s="5" t="s">
-        <v>1822</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="845" spans="1:6" ht="12" x14ac:dyDescent="0.2">
@@ -15869,7 +15869,7 @@
         <v>7001</v>
       </c>
       <c r="C845" s="2" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="D845" s="5"/>
     </row>
@@ -15881,13 +15881,13 @@
         <v>7001</v>
       </c>
       <c r="C846" s="2" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="D846" s="5" t="s">
-        <v>1709</v>
+        <v>1708</v>
       </c>
       <c r="F846" s="5" t="s">
-        <v>1794</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="847" spans="1:6" ht="12" x14ac:dyDescent="0.2">
@@ -15898,7 +15898,7 @@
         <v>7001</v>
       </c>
       <c r="C847" s="2" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="D847" s="5"/>
     </row>
@@ -15910,7 +15910,7 @@
         <v>7001</v>
       </c>
       <c r="C848" s="2" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="D848" s="5"/>
     </row>
@@ -15922,7 +15922,7 @@
         <v>637</v>
       </c>
       <c r="C849" s="2" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="D849" s="5"/>
     </row>
@@ -15934,7 +15934,7 @@
         <v>7040</v>
       </c>
       <c r="C850" s="2" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="D850" s="5"/>
     </row>
@@ -15946,7 +15946,7 @@
         <v>7000</v>
       </c>
       <c r="C851" s="2" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="D851" s="5"/>
     </row>
@@ -15968,7 +15968,7 @@
       </c>
       <c r="B853" s="2"/>
       <c r="C853" s="2" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="D853" s="5"/>
     </row>
@@ -15978,16 +15978,16 @@
       </c>
       <c r="B854" s="2"/>
       <c r="C854" s="2" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="D854" s="5" t="s">
-        <v>1708</v>
+        <v>1707</v>
       </c>
       <c r="E854" s="5" t="s">
-        <v>1779</v>
+        <v>1778</v>
       </c>
       <c r="F854" s="5" t="s">
-        <v>1797</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="855" spans="1:6" ht="12" x14ac:dyDescent="0.2">
@@ -15996,13 +15996,13 @@
       </c>
       <c r="B855" s="2"/>
       <c r="C855" s="2" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="D855" s="5" t="s">
-        <v>1717</v>
+        <v>1716</v>
       </c>
       <c r="F855" s="5" t="s">
-        <v>1793</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="856" spans="1:6" ht="12" x14ac:dyDescent="0.2">
@@ -16011,7 +16011,7 @@
       </c>
       <c r="B856" s="2"/>
       <c r="C856" s="2" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
       <c r="D856" s="5"/>
     </row>
@@ -16021,7 +16021,7 @@
       </c>
       <c r="B857" s="2"/>
       <c r="C857" s="2" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="D857" s="5"/>
     </row>
@@ -16034,10 +16034,10 @@
         <v>632</v>
       </c>
       <c r="D858" s="5" t="s">
+        <v>1694</v>
+      </c>
+      <c r="F858" s="5" t="s">
         <v>1695</v>
-      </c>
-      <c r="F858" s="5" t="s">
-        <v>1696</v>
       </c>
     </row>
     <row r="859" spans="1:6" ht="12" x14ac:dyDescent="0.2">
@@ -16045,10 +16045,10 @@
         <v>7501</v>
       </c>
       <c r="B859" s="2" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="C859" s="2" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
       <c r="D859" s="5"/>
     </row>
@@ -16057,10 +16057,10 @@
         <v>7502</v>
       </c>
       <c r="B860" s="2" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="C860" s="2" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="D860" s="5"/>
     </row>
@@ -16069,7 +16069,7 @@
         <v>7503</v>
       </c>
       <c r="B861" s="2" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="C861" s="2" t="s">
         <v>291</v>
@@ -16081,7 +16081,7 @@
         <v>7504</v>
       </c>
       <c r="B862" s="2" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="C862" s="2" t="s">
         <v>292</v>
@@ -16093,10 +16093,10 @@
         <v>7505</v>
       </c>
       <c r="B863" s="2" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="C863" s="2" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
       <c r="D863" s="5"/>
     </row>
@@ -16105,10 +16105,10 @@
         <v>7506</v>
       </c>
       <c r="B864" s="2" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="C864" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="D864" s="5"/>
     </row>
@@ -16117,10 +16117,10 @@
         <v>7507</v>
       </c>
       <c r="B865" s="2" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="C865" s="2" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="D865" s="5"/>
     </row>
@@ -16129,10 +16129,10 @@
         <v>7508</v>
       </c>
       <c r="B866" s="2" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="C866" s="2" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="D866" s="5"/>
     </row>
@@ -16141,10 +16141,10 @@
         <v>7509</v>
       </c>
       <c r="B867" s="2" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="C867" s="2" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="D867" s="5"/>
     </row>
@@ -16153,7 +16153,7 @@
         <v>717</v>
       </c>
       <c r="B868" s="2" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="C868" s="2" t="s">
         <v>718</v>
@@ -16162,13 +16162,13 @@
     </row>
     <row r="869" spans="1:6" ht="12" x14ac:dyDescent="0.2">
       <c r="A869" s="2" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="B869" s="2" t="s">
         <v>635</v>
       </c>
       <c r="C869" s="2" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="D869" s="5"/>
     </row>
@@ -16177,10 +16177,10 @@
         <v>7511</v>
       </c>
       <c r="B870" s="2" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="C870" s="2" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
       <c r="D870" s="5"/>
     </row>
@@ -16201,10 +16201,10 @@
         <v>7515</v>
       </c>
       <c r="B872" s="2" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="C872" s="2" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="D872" s="5"/>
     </row>
@@ -16213,10 +16213,10 @@
         <v>7516</v>
       </c>
       <c r="B873" s="2" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="C873" s="2" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="D873" s="5"/>
     </row>
@@ -16225,10 +16225,10 @@
         <v>7520</v>
       </c>
       <c r="B874" s="2" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="C874" s="2" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
       <c r="D874" s="5"/>
     </row>
@@ -16237,10 +16237,10 @@
         <v>7521</v>
       </c>
       <c r="B875" s="2" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="C875" s="2" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="D875" s="5"/>
     </row>
@@ -16249,10 +16249,10 @@
         <v>7522</v>
       </c>
       <c r="B876" s="2" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="C876" s="2" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="D876" s="5"/>
     </row>
@@ -16261,16 +16261,16 @@
         <v>7523</v>
       </c>
       <c r="B877" s="2" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="C877" s="2" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
       <c r="D877" s="5" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
       <c r="F877" s="5" t="s">
-        <v>1796</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="878" spans="1:6" ht="12" x14ac:dyDescent="0.2">
@@ -16278,16 +16278,16 @@
         <v>7524</v>
       </c>
       <c r="B878" s="2" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="C878" s="2" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="D878" s="5" t="s">
-        <v>1718</v>
+        <v>1717</v>
       </c>
       <c r="F878" s="5" t="s">
-        <v>1795</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="879" spans="1:6" ht="12" x14ac:dyDescent="0.2">
@@ -16295,10 +16295,10 @@
         <v>7525</v>
       </c>
       <c r="B879" s="2" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="C879" s="2" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="D879" s="5"/>
     </row>
@@ -16307,16 +16307,16 @@
         <v>7526</v>
       </c>
       <c r="B880" s="2" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="C880" s="2" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D880" s="5" t="s">
-        <v>1818</v>
+        <v>1817</v>
       </c>
       <c r="F880" s="5" t="s">
-        <v>1817</v>
+        <v>1816</v>
       </c>
     </row>
     <row r="881" spans="1:6" ht="12" x14ac:dyDescent="0.2">
@@ -16324,10 +16324,10 @@
         <v>7527</v>
       </c>
       <c r="B881" s="2" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="C881" s="2" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="D881" s="5"/>
     </row>
@@ -16336,14 +16336,14 @@
         <v>7528</v>
       </c>
       <c r="B882" s="2" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="C882" s="2" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="D882" s="5"/>
       <c r="F882" s="5" t="s">
-        <v>1819</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="883" spans="1:6" ht="12" x14ac:dyDescent="0.2">
@@ -16351,16 +16351,16 @@
         <v>7529</v>
       </c>
       <c r="B883" s="2" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="C883" s="2" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="D883" s="5" t="s">
+        <v>1747</v>
+      </c>
+      <c r="F883" s="5" t="s">
         <v>1748</v>
-      </c>
-      <c r="F883" s="5" t="s">
-        <v>1749</v>
       </c>
     </row>
     <row r="884" spans="1:6" ht="12" x14ac:dyDescent="0.2">
@@ -16371,7 +16371,7 @@
         <v>635</v>
       </c>
       <c r="C884" s="2" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="D884" s="5"/>
     </row>
@@ -16383,7 +16383,7 @@
         <v>635</v>
       </c>
       <c r="C885" s="2" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="D885" s="5"/>
     </row>
@@ -16395,7 +16395,7 @@
         <v>635</v>
       </c>
       <c r="C886" s="2" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="D886" s="5"/>
     </row>
@@ -16407,7 +16407,7 @@
         <v>635</v>
       </c>
       <c r="C887" s="2" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="D887" s="5"/>
     </row>
@@ -16417,7 +16417,7 @@
       </c>
       <c r="B888" s="2"/>
       <c r="C888" s="2" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="D888" s="5"/>
     </row>
@@ -16427,7 +16427,7 @@
       </c>
       <c r="B889" s="2"/>
       <c r="C889" s="2" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="D889" s="5"/>
     </row>
@@ -16437,7 +16437,7 @@
       </c>
       <c r="B890" s="2"/>
       <c r="C890" s="2" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="D890" s="5"/>
     </row>
@@ -16447,7 +16447,7 @@
       </c>
       <c r="B891" s="2"/>
       <c r="C891" s="2" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="D891" s="5"/>
     </row>
@@ -16457,7 +16457,7 @@
       </c>
       <c r="B892" s="2"/>
       <c r="C892" s="2" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="D892" s="5"/>
     </row>
@@ -16467,7 +16467,7 @@
       </c>
       <c r="B893" s="2"/>
       <c r="C893" s="2" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
       <c r="D893" s="5"/>
     </row>
@@ -16477,7 +16477,7 @@
       </c>
       <c r="B894" s="2"/>
       <c r="C894" s="2" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
       <c r="D894" s="5"/>
     </row>
@@ -16490,10 +16490,10 @@
         <v>720</v>
       </c>
       <c r="D895" s="5" t="s">
-        <v>1697</v>
+        <v>1696</v>
       </c>
       <c r="F895" s="5" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
     </row>
     <row r="896" spans="1:6" ht="12" x14ac:dyDescent="0.2">
@@ -16504,7 +16504,7 @@
         <v>8000</v>
       </c>
       <c r="C896" s="2" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
       <c r="D896" s="5"/>
     </row>
@@ -16516,7 +16516,7 @@
         <v>8000</v>
       </c>
       <c r="C897" s="2" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
       <c r="D897" s="5"/>
     </row>
@@ -16528,7 +16528,7 @@
         <v>8000</v>
       </c>
       <c r="C898" s="2" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="D898" s="5"/>
     </row>
@@ -16540,7 +16540,7 @@
         <v>8000</v>
       </c>
       <c r="C899" s="2" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="D899" s="5"/>
     </row>
@@ -16552,7 +16552,7 @@
         <v>8000</v>
       </c>
       <c r="C900" s="2" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="D900" s="5"/>
     </row>
@@ -16564,7 +16564,7 @@
         <v>8000</v>
       </c>
       <c r="C901" s="2" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
       <c r="D901" s="5"/>
     </row>
@@ -16576,7 +16576,7 @@
         <v>8000</v>
       </c>
       <c r="C902" s="2" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
       <c r="D902" s="5"/>
     </row>
@@ -16588,7 +16588,7 @@
         <v>8000</v>
       </c>
       <c r="C903" s="2" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="D903" s="5"/>
     </row>
@@ -16600,7 +16600,7 @@
         <v>8000</v>
       </c>
       <c r="C904" s="2" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="D904" s="5"/>
     </row>
@@ -16612,7 +16612,7 @@
         <v>8000</v>
       </c>
       <c r="C905" s="2" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
       <c r="D905" s="5"/>
     </row>
@@ -16624,7 +16624,7 @@
         <v>8000</v>
       </c>
       <c r="C906" s="2" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
       <c r="D906" s="5"/>
     </row>
@@ -16636,7 +16636,7 @@
         <v>8000</v>
       </c>
       <c r="C907" s="2" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="D907" s="5"/>
     </row>
@@ -16646,7 +16646,7 @@
       </c>
       <c r="B908" s="2"/>
       <c r="C908" s="2" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="D908" s="5"/>
     </row>
@@ -16656,7 +16656,7 @@
       </c>
       <c r="B909" s="2"/>
       <c r="C909" s="2" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="D909" s="5"/>
     </row>
@@ -16665,20 +16665,20 @@
         <v>8400</v>
       </c>
       <c r="B910" s="2" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="C910" s="2" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
       <c r="D910" s="5"/>
     </row>
     <row r="911" spans="1:6" ht="12" x14ac:dyDescent="0.2">
       <c r="A911" s="2" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="B911" s="2"/>
       <c r="C911" s="2" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="D911" s="5"/>
     </row>
@@ -16691,10 +16691,10 @@
         <v>721</v>
       </c>
       <c r="D912" s="5" t="s">
+        <v>1697</v>
+      </c>
+      <c r="F912" s="5" t="s">
         <v>1698</v>
-      </c>
-      <c r="F912" s="5" t="s">
-        <v>1699</v>
       </c>
     </row>
     <row r="913" spans="1:4" ht="12" x14ac:dyDescent="0.2">
@@ -16705,7 +16705,7 @@
         <v>638</v>
       </c>
       <c r="C913" s="2" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
       <c r="D913" s="5"/>
     </row>
@@ -16717,7 +16717,7 @@
         <v>8601</v>
       </c>
       <c r="C914" s="2" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="D914" s="5"/>
     </row>
@@ -16741,7 +16741,7 @@
         <v>8600</v>
       </c>
       <c r="C916" s="2" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="D916" s="5"/>
     </row>
@@ -16765,7 +16765,7 @@
         <v>8600</v>
       </c>
       <c r="C918" s="2" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
       <c r="D918" s="5"/>
     </row>
@@ -16777,7 +16777,7 @@
         <v>8600</v>
       </c>
       <c r="C919" s="2" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
       <c r="D919" s="5"/>
     </row>
@@ -16789,7 +16789,7 @@
         <v>8600</v>
       </c>
       <c r="C920" s="2" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="D920" s="5"/>
     </row>
@@ -16801,7 +16801,7 @@
         <v>8600</v>
       </c>
       <c r="C921" s="2" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
       <c r="D921" s="5"/>
     </row>
@@ -16825,7 +16825,7 @@
         <v>8601</v>
       </c>
       <c r="C923" s="2" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
       <c r="D923" s="5"/>
     </row>
@@ -16849,7 +16849,7 @@
         <v>8600</v>
       </c>
       <c r="C925" s="2" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="D925" s="5"/>
     </row>
@@ -16861,7 +16861,7 @@
         <v>8601</v>
       </c>
       <c r="C926" s="2" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="D926" s="5"/>
     </row>
@@ -16873,7 +16873,7 @@
         <v>8600</v>
       </c>
       <c r="C927" s="2" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="D927" s="5"/>
     </row>
@@ -16885,7 +16885,7 @@
         <v>8600</v>
       </c>
       <c r="C928" s="2" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="D928" s="5"/>
     </row>
@@ -16897,7 +16897,7 @@
         <v>8600</v>
       </c>
       <c r="C929" s="2" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="D929" s="5"/>
     </row>
@@ -16909,7 +16909,7 @@
         <v>8600</v>
       </c>
       <c r="C930" s="2" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="D930" s="5"/>
     </row>
@@ -16921,7 +16921,7 @@
         <v>8600</v>
       </c>
       <c r="C931" s="2" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="D931" s="5"/>
     </row>
@@ -16933,7 +16933,7 @@
         <v>8600</v>
       </c>
       <c r="C932" s="2" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="D932" s="5"/>
     </row>
@@ -16957,7 +16957,7 @@
         <v>8600</v>
       </c>
       <c r="C934" s="2" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="D934" s="5"/>
     </row>
@@ -16981,7 +16981,7 @@
         <v>8601</v>
       </c>
       <c r="C936" s="2" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="D936" s="5"/>
     </row>
@@ -17005,13 +17005,13 @@
         <v>8600</v>
       </c>
       <c r="C938" s="2" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="D938" s="5"/>
     </row>
     <row r="939" spans="1:4" ht="12" x14ac:dyDescent="0.2">
       <c r="A939" s="2" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="B939" s="2">
         <v>8600</v>
@@ -17023,7 +17023,7 @@
     </row>
     <row r="940" spans="1:4" ht="12" x14ac:dyDescent="0.2">
       <c r="A940" s="2" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="B940" s="2">
         <v>8600</v>
@@ -17035,7 +17035,7 @@
     </row>
     <row r="941" spans="1:4" ht="24" x14ac:dyDescent="0.2">
       <c r="A941" s="2" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="B941" s="2">
         <v>8600</v>
@@ -17047,7 +17047,7 @@
     </row>
     <row r="942" spans="1:4" ht="12" x14ac:dyDescent="0.2">
       <c r="A942" s="2" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="B942" s="2">
         <v>8600</v>
@@ -17059,7 +17059,7 @@
     </row>
     <row r="943" spans="1:4" ht="12" x14ac:dyDescent="0.2">
       <c r="A943" s="2" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="B943" s="2">
         <v>8600</v>
@@ -17071,7 +17071,7 @@
     </row>
     <row r="944" spans="1:4" ht="12" x14ac:dyDescent="0.2">
       <c r="A944" s="2" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="B944" s="2">
         <v>8600</v>
@@ -17083,7 +17083,7 @@
     </row>
     <row r="945" spans="1:6" ht="12" x14ac:dyDescent="0.2">
       <c r="A945" s="2" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="B945" s="2">
         <v>8600</v>
@@ -17095,7 +17095,7 @@
     </row>
     <row r="946" spans="1:6" ht="12" x14ac:dyDescent="0.2">
       <c r="A946" s="2" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="B946" s="2">
         <v>8600</v>
@@ -17107,7 +17107,7 @@
     </row>
     <row r="947" spans="1:6" ht="12" x14ac:dyDescent="0.2">
       <c r="A947" s="2" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="B947" s="2">
         <v>8600</v>
@@ -17119,7 +17119,7 @@
     </row>
     <row r="948" spans="1:6" ht="12" x14ac:dyDescent="0.2">
       <c r="A948" s="2" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="B948" s="2">
         <v>8600</v>
@@ -17135,7 +17135,7 @@
       </c>
       <c r="B949" s="2"/>
       <c r="C949" s="2" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="D949" s="5"/>
     </row>
@@ -17145,7 +17145,7 @@
       </c>
       <c r="B950" s="2"/>
       <c r="C950" s="2" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="D950" s="5"/>
     </row>
@@ -17158,7 +17158,7 @@
         <v>641</v>
       </c>
       <c r="D951" s="5" t="s">
-        <v>1720</v>
+        <v>1719</v>
       </c>
     </row>
     <row r="952" spans="1:6" ht="12" x14ac:dyDescent="0.2">
@@ -17167,7 +17167,7 @@
       </c>
       <c r="B952" s="2"/>
       <c r="C952" s="2" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="D952" s="5"/>
     </row>
@@ -17177,7 +17177,7 @@
       </c>
       <c r="B953" s="2"/>
       <c r="C953" s="2" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="D953" s="5"/>
     </row>
@@ -17187,7 +17187,7 @@
       </c>
       <c r="B954" s="2"/>
       <c r="C954" s="2" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="D954" s="5"/>
     </row>
@@ -17197,7 +17197,7 @@
       </c>
       <c r="B955" s="2"/>
       <c r="C955" s="2" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="D955" s="5"/>
     </row>
@@ -17210,10 +17210,10 @@
         <v>534</v>
       </c>
       <c r="D956" s="5" t="s">
-        <v>1756</v>
+        <v>1755</v>
       </c>
       <c r="F956" s="5" t="s">
-        <v>1700</v>
+        <v>1699</v>
       </c>
     </row>
     <row r="957" spans="1:6" ht="12" x14ac:dyDescent="0.2">
@@ -17248,7 +17248,7 @@
         <v>535</v>
       </c>
       <c r="C959" s="2" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="D959" s="5"/>
     </row>
@@ -17284,7 +17284,7 @@
         <v>535</v>
       </c>
       <c r="C962" s="2" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="D962" s="5"/>
     </row>
@@ -17308,7 +17308,7 @@
         <v>535</v>
       </c>
       <c r="C964" s="2" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="D964" s="5"/>
     </row>
@@ -17332,7 +17332,7 @@
         <v>535</v>
       </c>
       <c r="C966" s="2" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="D966" s="5"/>
     </row>
@@ -17344,7 +17344,7 @@
         <v>535</v>
       </c>
       <c r="C967" s="2" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="D967" s="5"/>
     </row>
@@ -17356,7 +17356,7 @@
         <v>535</v>
       </c>
       <c r="C968" s="2" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="D968" s="5"/>
     </row>
@@ -17392,7 +17392,7 @@
         <v>535</v>
       </c>
       <c r="C971" s="2" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="D971" s="5"/>
     </row>
@@ -17404,7 +17404,7 @@
         <v>535</v>
       </c>
       <c r="C972" s="2" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="D972" s="5"/>
     </row>
@@ -17428,7 +17428,7 @@
         <v>535</v>
       </c>
       <c r="C974" s="2" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="D974" s="5"/>
     </row>
@@ -17440,7 +17440,7 @@
         <v>535</v>
       </c>
       <c r="C975" s="2" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="D975" s="5"/>
     </row>
@@ -17452,7 +17452,7 @@
         <v>535</v>
       </c>
       <c r="C976" s="2" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="D976" s="5"/>
     </row>
@@ -17464,7 +17464,7 @@
         <v>535</v>
       </c>
       <c r="C977" s="2" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="D977" s="5"/>
     </row>
@@ -17488,7 +17488,7 @@
         <v>535</v>
       </c>
       <c r="C979" s="2" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="D979" s="5"/>
     </row>
@@ -17500,7 +17500,7 @@
         <v>535</v>
       </c>
       <c r="C980" s="2" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="D980" s="5"/>
     </row>
@@ -17572,7 +17572,7 @@
         <v>564</v>
       </c>
       <c r="C986" s="2" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="D986" s="5"/>
     </row>
@@ -17608,7 +17608,7 @@
         <v>564</v>
       </c>
       <c r="C989" s="2" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="D989" s="5"/>
     </row>
@@ -17620,7 +17620,7 @@
         <v>572</v>
       </c>
       <c r="C990" s="2" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="D990" s="5"/>
     </row>
@@ -17632,7 +17632,7 @@
         <v>564</v>
       </c>
       <c r="C991" s="2" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="D991" s="5"/>
     </row>
@@ -17644,7 +17644,7 @@
         <v>564</v>
       </c>
       <c r="C992" s="2" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="D992" s="5"/>
     </row>
@@ -17704,7 +17704,7 @@
         <v>564</v>
       </c>
       <c r="C997" s="2" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="D997" s="5"/>
     </row>
@@ -17716,7 +17716,7 @@
         <v>564</v>
       </c>
       <c r="C998" s="2" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="D998" s="5"/>
     </row>
@@ -17728,7 +17728,7 @@
         <v>564</v>
       </c>
       <c r="C999" s="2" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="D999" s="5"/>
     </row>
@@ -17740,7 +17740,7 @@
         <v>564</v>
       </c>
       <c r="C1000" s="2" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="D1000" s="5"/>
     </row>
@@ -17752,7 +17752,7 @@
         <v>564</v>
       </c>
       <c r="C1001" s="2" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="D1001" s="5"/>
     </row>
@@ -17764,7 +17764,7 @@
         <v>564</v>
       </c>
       <c r="C1002" s="2" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="D1002" s="5"/>
     </row>
@@ -17776,7 +17776,7 @@
         <v>564</v>
       </c>
       <c r="C1003" s="2" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="D1003" s="5"/>
     </row>
@@ -17788,7 +17788,7 @@
         <v>564</v>
       </c>
       <c r="C1004" s="2" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="D1004" s="5"/>
     </row>
@@ -17824,7 +17824,7 @@
         <v>564</v>
       </c>
       <c r="C1007" s="2" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="D1007" s="5"/>
     </row>
@@ -17836,7 +17836,7 @@
         <v>564</v>
       </c>
       <c r="C1008" s="2" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="D1008" s="5"/>
     </row>
@@ -17848,7 +17848,7 @@
         <v>564</v>
       </c>
       <c r="C1009" s="2" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="D1009" s="5"/>
     </row>
@@ -17860,7 +17860,7 @@
         <v>564</v>
       </c>
       <c r="C1010" s="2" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="D1010" s="5"/>
     </row>
@@ -17872,7 +17872,7 @@
         <v>564</v>
       </c>
       <c r="C1011" s="2" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="D1011" s="5"/>
     </row>
@@ -17896,7 +17896,7 @@
         <v>564</v>
       </c>
       <c r="C1013" s="2" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="D1013" s="5"/>
     </row>
@@ -17908,7 +17908,7 @@
         <v>564</v>
       </c>
       <c r="C1014" s="2" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="D1014" s="5"/>
     </row>
@@ -17920,7 +17920,7 @@
         <v>564</v>
       </c>
       <c r="C1015" s="2" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="D1015" s="5"/>
     </row>
@@ -17932,7 +17932,7 @@
         <v>564</v>
       </c>
       <c r="C1016" s="2" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="D1016" s="5"/>
     </row>
@@ -17956,7 +17956,7 @@
         <v>564</v>
       </c>
       <c r="C1018" s="2" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="D1018" s="5"/>
     </row>
@@ -17968,7 +17968,7 @@
         <v>564</v>
       </c>
       <c r="C1019" s="2" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="D1019" s="5"/>
     </row>
@@ -17992,7 +17992,7 @@
         <v>564</v>
       </c>
       <c r="C1021" s="2" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="D1021" s="5"/>
     </row>
@@ -18004,7 +18004,7 @@
         <v>564</v>
       </c>
       <c r="C1022" s="2" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="D1022" s="5"/>
     </row>
@@ -18016,7 +18016,7 @@
         <v>564</v>
       </c>
       <c r="C1023" s="2" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="D1023" s="5"/>
     </row>
@@ -18028,7 +18028,7 @@
         <v>564</v>
       </c>
       <c r="C1024" s="2" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="D1024" s="5"/>
     </row>
@@ -18052,7 +18052,7 @@
         <v>564</v>
       </c>
       <c r="C1026" s="2" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="D1026" s="5"/>
     </row>
@@ -18064,7 +18064,7 @@
         <v>564</v>
       </c>
       <c r="C1027" s="2" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="D1027" s="5"/>
     </row>
@@ -18076,7 +18076,7 @@
         <v>564</v>
       </c>
       <c r="C1028" s="2" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="D1028" s="5"/>
     </row>
@@ -18088,7 +18088,7 @@
         <v>564</v>
       </c>
       <c r="C1029" s="2" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="D1029" s="5"/>
     </row>
@@ -18161,7 +18161,7 @@
         <v>835</v>
       </c>
       <c r="D1035" s="5" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="1036" spans="1:6" ht="12" x14ac:dyDescent="0.2">
@@ -18183,10 +18183,10 @@
         <v>530</v>
       </c>
       <c r="D1037" s="5" t="s">
-        <v>1769</v>
+        <v>1768</v>
       </c>
       <c r="F1037" s="5" t="s">
-        <v>1701</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="1038" spans="1:6" ht="12" x14ac:dyDescent="0.2">
@@ -18233,7 +18233,7 @@
         <v>9100</v>
       </c>
       <c r="C1041" s="2" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="D1041" s="5"/>
     </row>
@@ -18245,7 +18245,7 @@
         <v>9100</v>
       </c>
       <c r="C1042" s="2" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="D1042" s="5"/>
     </row>
@@ -18305,7 +18305,7 @@
         <v>9100</v>
       </c>
       <c r="C1047" s="2" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="D1047" s="5"/>
     </row>
@@ -18317,7 +18317,7 @@
         <v>9100</v>
       </c>
       <c r="C1048" s="2" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
       <c r="D1048" s="5"/>
     </row>
@@ -18808,7 +18808,7 @@
         <v>1178</v>
       </c>
       <c r="D1091" s="5" t="s">
-        <v>1790</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="1092" spans="1:4" ht="12" x14ac:dyDescent="0.2">
@@ -18820,7 +18820,7 @@
         <v>1179</v>
       </c>
       <c r="D1092" s="5" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="1093" spans="1:4" ht="12" x14ac:dyDescent="0.2">
@@ -19029,16 +19029,16 @@
       </c>
       <c r="B1113" s="2"/>
       <c r="C1113" s="4" t="s">
+        <v>1776</v>
+      </c>
+      <c r="D1113" s="5" t="s">
         <v>1777</v>
-      </c>
-      <c r="D1113" s="5" t="s">
-        <v>1778</v>
       </c>
       <c r="E1113" s="2" t="s">
         <v>1199</v>
       </c>
       <c r="F1113" s="5" t="s">
-        <v>1804</v>
+        <v>1803</v>
       </c>
     </row>
     <row r="1114" spans="1:6" ht="12" x14ac:dyDescent="0.2">
@@ -19121,7 +19121,7 @@
       </c>
       <c r="D1121" s="5"/>
       <c r="E1121" s="5" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="1122" spans="1:5" ht="12" x14ac:dyDescent="0.2">
@@ -19170,7 +19170,7 @@
       </c>
       <c r="B1126" s="2"/>
       <c r="C1126" s="2" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="D1126" s="5"/>
     </row>
@@ -19369,10 +19369,10 @@
         <v>742</v>
       </c>
       <c r="D1145" s="5" t="s">
-        <v>1703</v>
+        <v>1702</v>
       </c>
       <c r="F1145" s="5" t="s">
-        <v>1702</v>
+        <v>1701</v>
       </c>
     </row>
     <row r="1146" spans="1:6" ht="12" x14ac:dyDescent="0.2">
@@ -19614,7 +19614,7 @@
         <v>129</v>
       </c>
       <c r="D1165" s="5" t="s">
-        <v>1765</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="1166" spans="1:4" ht="12" x14ac:dyDescent="0.2">
@@ -19748,7 +19748,7 @@
         <v>151</v>
       </c>
       <c r="D1176" s="5" t="s">
-        <v>1755</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="1177" spans="1:4" ht="12" x14ac:dyDescent="0.2">
@@ -19762,7 +19762,7 @@
         <v>153</v>
       </c>
       <c r="D1177" s="5" t="s">
-        <v>1754</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="1178" spans="1:4" ht="12" x14ac:dyDescent="0.2">
@@ -19848,7 +19848,7 @@
         <v>166</v>
       </c>
       <c r="D1184" s="5" t="s">
-        <v>1760</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="1185" spans="1:4" ht="12" x14ac:dyDescent="0.2">
@@ -19856,7 +19856,7 @@
         <v>167</v>
       </c>
       <c r="B1185" s="2" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="C1185" s="2" t="s">
         <v>168</v>
@@ -19868,7 +19868,7 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:C6 A1021:C1047 A802:C837 A801:B801 A13:C24 A12:B12 A760:B760 A759:B759 A773:C800 A772:B772 A1050:C1112 A1048 C1048 A1049 C1049 A26:C67 B25:C25 A568:C593 A567:B567 A771:B771 A761:B761 A839:C873 A838:B838 A762:B762 A763:B763 A764:B764 A765:B765 A766:B766 A767:B767 A768:B768 A769:B769 A770:B770 A758:B758 A148:C566 A147:B147 A69:C146 A68 C68 A8:C11 A7:B7 A595:C757 A594:B594 A1114:C1048576 A1113:B1113 A875:C1020 A874:B874" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:C6 A1021:C1047 A802:C837 A801:B801 A13:C24 A12:B12 A760:B760 A759:B759 A773:C800 A772:B772 A1050:C1112 A1048 C1048 A1049 C1049 A26:C67 B25:C25 A568:C593 A567:B567 A771:B771 A761:B761 A839:C873 A838:B838 A762:B762 A763:B763 A764:B764 A765:B765 A766:B766 A767:B767 A768:B768 A769:B769 A770:B770 A758:B758 A148:C199 A147:B147 A69:C146 A68 C68 A8:C11 A7:B7 A595:C757 A594:B594 A1114:C1048576 A1113:B1113 A875:C1020 A874:B874 A201:C566 A200:B200" numberStoredAsText="1"/>
   </ignoredErrors>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
